--- a/PTBR-COM-PORTRAIT/Lang/PTBR/Game/CharaText.xlsx
+++ b/PTBR-COM-PORTRAIT/Lang/PTBR/Game/CharaText.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D761C93C-F44B-470A-A52A-3C59BE7958D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8579DC5-9B1A-4080-8A0F-297EB8E5D617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10320" yWindow="0" windowWidth="10320" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharaText" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="1106">
   <si>
     <t>id</t>
   </si>
@@ -4975,12 +4975,113 @@
 "Descanse em paz."
 "Não precisa mais sofrer."</t>
   </si>
+  <si>
+    <t>EA 23.266</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *パタパタ*
+ * ばさっばさっ*
+*ハタハタ*</t>
+  </si>
+  <si>
+    <t>「啊啊！」</t>
+  </si>
+  <si>
+    <t>「下地狱去吧」
+「活该」</t>
+  </si>
+  <si>
+    <t>"Meow."
+"Mew mew."
+"Mew."
+*purr purr*</t>
+  </si>
+  <si>
+    <t>「うみみゃ」
+「みゅー」
+「みゃ」
+*ごろごろ*</t>
+  </si>
+  <si>
+    <t>「哈嘶」
+「呜喵喵！」
+「喵！」</t>
+  </si>
+  <si>
+    <t>「咪…咪呀…」</t>
+  </si>
+  <si>
+    <t>黑猫摇了摇尾巴。</t>
+  </si>
+  <si>
+    <t>You feel the ground tremble with the steps of a large, angry  Protector.
+Little Sister: "Look #bigdaddy, the angel."
+Little Sister: "Look #bigdaddy, the angels are dancing in the sky!"
+You hear the tread of something you do NOT want to anger. Ever.
+* Thump*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *ドスン*
+リトルシスター「見て#bigdaddy、天使がいるわ」
+リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
+*ドン*</t>
+  </si>
+  <si>
+    <t>小妹妹「杀吧！杀吧！」
+小妹妹「给我粉碎吧！」
+小妹妹「#bigdaddy，上啊！！」</t>
+  </si>
+  <si>
+    <t>「咯嗷哦哦哦哦哦！」</t>
+  </si>
+  <si>
+    <t>小妹妹「用天使的血填饱肚子吧」</t>
+  </si>
+  <si>
+    <t>「あんな極上の女はそうはいねえ」
+「俺の手に掛かれば、どんな女もイチコロよ」
+*レロレロレロ*
+「まったく罪な男に生まれちまったもんだ」</t>
+  </si>
+  <si>
+    <t>「让你看看什么才是真正的男人」</t>
+  </si>
+  <si>
+    <t>「妈妈—！」</t>
+  </si>
+  <si>
+    <t>「呸」</t>
+  </si>
+  <si>
+    <t>*bater de asas*
+*sacudir*
+*bater bater*</t>
+  </si>
+  <si>
+    <t>"Miau."
+"Miau miau."
+"Miau."
+*ronron ronron*</t>
+  </si>
+  <si>
+    <t>Você sente o chão tremer com os passos de um grande e furioso Protetor.
+Irmãzinha: "Olha #bigdaddy, o anjo."
+Irmãzinha: "Olha #bigdaddy, os anjos estão dançando no céu!"
+Você ouve as passadas de algo que você NÃO quer irritar. Jamais.
+*Tromp*</t>
+  </si>
+  <si>
+    <t>"Senhoras! A fila começa aqui!"
+"Nenhuma mulher resiste ao meu charme."
+*ero-ero-ero-ero*
+"Sou o presente dos Deuses para as mulheres."</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -5365,33 +5466,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q130"/>
+  <dimension ref="A1:Q134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="113.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="92.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="105.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="142.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="121.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="202.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="255.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="113.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="92.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="105.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="142.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="121.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="202.125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="163.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="136.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="163.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="136.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="87" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="149.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="149.125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5444,4352 +5545,4519 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="57">
       <c r="A3" t="s">
-        <v>929</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>930</v>
+        <v>382</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1011</v>
+        <v>753</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>931</v>
+        <v>542</v>
       </c>
       <c r="E3" t="s">
-        <v>932</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>933</v>
+        <v>216</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="H3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" t="s">
+        <v>678</v>
+      </c>
+      <c r="J3" t="s">
+        <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>934</v>
+        <v>109</v>
       </c>
       <c r="L3" t="s">
-        <v>1063</v>
+        <v>678</v>
       </c>
       <c r="M3" t="s">
-        <v>935</v>
+        <v>109</v>
       </c>
       <c r="N3" t="s">
-        <v>936</v>
+        <v>109</v>
       </c>
       <c r="O3" t="s">
-        <v>1080</v>
+        <v>678</v>
       </c>
       <c r="P3" t="s">
-        <v>937</v>
+        <v>109</v>
       </c>
       <c r="Q3" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="114">
       <c r="A4" t="s">
-        <v>976</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>977</v>
+        <v>382</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1013</v>
+        <v>752</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>978</v>
+        <v>541</v>
       </c>
       <c r="E4" t="s">
-        <v>979</v>
+        <v>214</v>
       </c>
       <c r="I4" t="s">
-        <v>1058</v>
+        <v>678</v>
       </c>
       <c r="J4" t="s">
-        <v>980</v>
+        <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>981</v>
+        <v>109</v>
       </c>
       <c r="L4" t="s">
-        <v>1069</v>
+        <v>678</v>
       </c>
       <c r="M4" t="s">
-        <v>982</v>
+        <v>109</v>
       </c>
       <c r="N4" t="s">
-        <v>983</v>
+        <v>109</v>
       </c>
       <c r="O4" t="s">
-        <v>1080</v>
+        <v>678</v>
       </c>
       <c r="P4" t="s">
-        <v>937</v>
+        <v>109</v>
       </c>
       <c r="Q4" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="42.75">
       <c r="A5" t="s">
-        <v>1002</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s">
-        <v>995</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>1003</v>
+        <v>382</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H5" t="s">
+        <v>307</v>
+      </c>
+      <c r="I5" t="s">
+        <v>706</v>
+      </c>
+      <c r="J5" t="s">
+        <v>150</v>
       </c>
       <c r="K5" t="s">
-        <v>1004</v>
+        <v>150</v>
       </c>
       <c r="L5" t="s">
-        <v>1071</v>
+        <v>706</v>
       </c>
       <c r="M5" t="s">
-        <v>1005</v>
+        <v>150</v>
       </c>
       <c r="N5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>1007</v>
+        <v>150</v>
+      </c>
+      <c r="O5" t="s">
+        <v>706</v>
+      </c>
+      <c r="P5" t="s">
+        <v>150</v>
       </c>
       <c r="Q5" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="42.75">
       <c r="A6" t="s">
-        <v>957</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>947</v>
+        <v>382</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="H6" t="s">
+        <v>248</v>
       </c>
       <c r="I6" t="s">
-        <v>958</v>
+        <v>706</v>
       </c>
       <c r="J6" t="s">
-        <v>958</v>
+        <v>150</v>
       </c>
       <c r="K6" t="s">
-        <v>959</v>
+        <v>150</v>
       </c>
       <c r="L6" t="s">
-        <v>1066</v>
+        <v>706</v>
       </c>
       <c r="M6" t="s">
-        <v>960</v>
+        <v>150</v>
       </c>
       <c r="N6" t="s">
-        <v>274</v>
+        <v>150</v>
       </c>
       <c r="O6" t="s">
-        <v>961</v>
+        <v>706</v>
       </c>
       <c r="P6" t="s">
-        <v>961</v>
+        <v>150</v>
       </c>
       <c r="Q6" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="42.75">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>876</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="D7" t="s">
-        <v>877</v>
-      </c>
-      <c r="E7" t="s">
-        <v>878</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>879</v>
+        <v>382</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" t="s">
+        <v>757</v>
+      </c>
+      <c r="J7" t="s">
+        <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>1073</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>880</v>
+        <v>222</v>
+      </c>
+      <c r="L7" t="s">
+        <v>757</v>
+      </c>
+      <c r="M7" t="s">
+        <v>222</v>
       </c>
       <c r="N7" t="s">
-        <v>341</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>881</v>
+        <v>222</v>
+      </c>
+      <c r="O7" t="s">
+        <v>757</v>
+      </c>
+      <c r="P7" t="s">
+        <v>222</v>
       </c>
       <c r="Q7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="42.75">
       <c r="A8" t="s">
-        <v>903</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>904</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="E8" t="s">
-        <v>906</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>907</v>
+        <v>382</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H8" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" t="s">
+        <v>761</v>
+      </c>
+      <c r="J8" t="s">
+        <v>228</v>
       </c>
       <c r="K8" t="s">
-        <v>908</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>909</v>
+        <v>228</v>
+      </c>
+      <c r="L8" t="s">
+        <v>761</v>
+      </c>
+      <c r="M8" t="s">
+        <v>228</v>
       </c>
       <c r="N8" t="s">
-        <v>910</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>911</v>
+        <v>228</v>
+      </c>
+      <c r="O8" t="s">
+        <v>761</v>
+      </c>
+      <c r="P8" t="s">
+        <v>228</v>
       </c>
       <c r="Q8" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="42.75">
       <c r="A9" t="s">
-        <v>1018</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1021</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1021</v>
+        <v>382</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1020</v>
+        <v>723</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="N9" t="s">
-        <v>1021</v>
+        <v>174</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>1020</v>
+        <v>724</v>
+      </c>
+      <c r="P9" t="s">
+        <v>175</v>
       </c>
       <c r="Q9" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="99.75">
       <c r="A10" t="s">
-        <v>984</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
-        <v>985</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="E10" t="s">
-        <v>987</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J10" t="s">
-        <v>988</v>
-      </c>
-      <c r="K10" t="s">
-        <v>989</v>
-      </c>
-      <c r="L10" t="s">
-        <v>1064</v>
+        <v>382</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>802</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>1059</v>
+        <v>583</v>
       </c>
       <c r="N10" t="s">
-        <v>990</v>
-      </c>
-      <c r="O10" t="s">
-        <v>1079</v>
-      </c>
-      <c r="P10" t="s">
-        <v>991</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="28.5">
       <c r="A11" t="s">
-        <v>915</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>904</v>
-      </c>
-      <c r="C11" t="s">
-        <v>914</v>
-      </c>
-      <c r="D11" t="s">
-        <v>914</v>
-      </c>
-      <c r="E11" t="s">
-        <v>914</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J11" t="s">
-        <v>916</v>
+        <v>382</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="K11" t="s">
-        <v>917</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>1062</v>
+        <v>683</v>
       </c>
       <c r="M11" t="s">
-        <v>918</v>
+        <v>481</v>
       </c>
       <c r="N11" t="s">
-        <v>919</v>
+        <v>118</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>1076</v>
+        <v>684</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>920</v>
+        <v>482</v>
       </c>
       <c r="Q11" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="315" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="57">
       <c r="A12" t="s">
-        <v>353</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>876</v>
+        <v>382</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D12" t="s">
-        <v>882</v>
+        <v>631</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="E12" t="s">
-        <v>883</v>
+        <v>38</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1054</v>
+        <v>632</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>884</v>
+        <v>437</v>
       </c>
       <c r="K12" t="s">
-        <v>354</v>
-      </c>
-      <c r="L12" t="s">
-        <v>1072</v>
-      </c>
-      <c r="M12" t="s">
-        <v>885</v>
+        <v>39</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="N12" t="s">
-        <v>355</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>886</v>
+        <v>40</v>
+      </c>
+      <c r="O12" t="s">
+        <v>634</v>
+      </c>
+      <c r="P12" t="s">
+        <v>439</v>
       </c>
       <c r="Q12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="99.75">
       <c r="A13" t="s">
-        <v>994</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>995</v>
+        <v>382</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>1051</v>
+        <v>666</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>996</v>
+        <v>467</v>
       </c>
       <c r="K13" t="s">
-        <v>997</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M13" t="s">
-        <v>998</v>
+        <v>93</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="N13" t="s">
-        <v>999</v>
+        <v>94</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>1082</v>
+        <v>668</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>1000</v>
+        <v>469</v>
       </c>
       <c r="Q13" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="42.75">
       <c r="A14" t="s">
-        <v>922</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>904</v>
-      </c>
-      <c r="C14" t="s">
-        <v>914</v>
-      </c>
-      <c r="D14" t="s">
-        <v>914</v>
-      </c>
-      <c r="E14" t="s">
-        <v>914</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J14" t="s">
-        <v>923</v>
+        <v>382</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="K14" t="s">
-        <v>924</v>
-      </c>
-      <c r="L14" t="s">
-        <v>1067</v>
-      </c>
-      <c r="M14" t="s">
-        <v>925</v>
+        <v>18</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="N14" t="s">
-        <v>926</v>
+        <v>19</v>
       </c>
       <c r="O14" t="s">
-        <v>927</v>
+        <v>625</v>
       </c>
       <c r="P14" t="s">
-        <v>927</v>
+        <v>432</v>
       </c>
       <c r="Q14" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="99.75">
       <c r="A15" t="s">
-        <v>950</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>947</v>
+        <v>382</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1012</v>
+        <v>635</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>948</v>
+        <v>440</v>
       </c>
       <c r="E15" t="s">
-        <v>949</v>
+        <v>43</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="J15" t="s">
-        <v>951</v>
+        <v>636</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="K15" t="s">
-        <v>952</v>
-      </c>
-      <c r="L15" t="s">
-        <v>1068</v>
-      </c>
-      <c r="M15" t="s">
-        <v>953</v>
+        <v>44</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="N15" t="s">
-        <v>954</v>
-      </c>
-      <c r="O15" t="s">
-        <v>955</v>
-      </c>
-      <c r="P15" t="s">
-        <v>955</v>
+        <v>45</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="Q15" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="42.75">
       <c r="A16" t="s">
-        <v>893</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>894</v>
+        <v>382</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>895</v>
+        <v>679</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>896</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>899</v>
+        <v>112</v>
+      </c>
+      <c r="L16" t="s">
+        <v>680</v>
+      </c>
+      <c r="M16" t="s">
+        <v>113</v>
       </c>
       <c r="N16" t="s">
-        <v>900</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>1075</v>
+        <v>114</v>
+      </c>
+      <c r="O16" t="s">
+        <v>681</v>
       </c>
       <c r="P16" t="s">
-        <v>901</v>
+        <v>479</v>
       </c>
       <c r="Q16" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="71.25">
       <c r="A17" t="s">
-        <v>939</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1017</v>
+        <v>382</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H17" t="s">
+        <v>145</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="J17" t="s">
-        <v>940</v>
+        <v>702</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="K17" t="s">
-        <v>941</v>
-      </c>
-      <c r="L17" t="s">
-        <v>1035</v>
-      </c>
-      <c r="M17" t="s">
-        <v>942</v>
+        <v>146</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="N17" t="s">
-        <v>943</v>
-      </c>
-      <c r="O17" t="s">
-        <v>1038</v>
-      </c>
-      <c r="P17" t="s">
-        <v>944</v>
+        <v>147</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="Q17" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="85.5">
       <c r="A18" t="s">
-        <v>357</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>1016</v>
+        <v>382</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1026</v>
+        <v>673</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>872</v>
+        <v>474</v>
       </c>
       <c r="E18" t="s">
-        <v>358</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1030</v>
-      </c>
-      <c r="J18" t="s">
-        <v>873</v>
+        <v>103</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="K18" t="s">
-        <v>359</v>
+        <v>104</v>
       </c>
       <c r="L18" t="s">
-        <v>1036</v>
+        <v>675</v>
       </c>
       <c r="M18" t="s">
-        <v>874</v>
+        <v>476</v>
       </c>
       <c r="N18" t="s">
-        <v>993</v>
+        <v>105</v>
       </c>
       <c r="O18" t="s">
-        <v>1039</v>
+        <v>676</v>
       </c>
       <c r="P18" t="s">
-        <v>875</v>
+        <v>477</v>
       </c>
       <c r="Q18" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="99.75">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" t="s">
-        <v>1032</v>
-      </c>
-      <c r="M19" t="s">
-        <v>864</v>
+        <v>382</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="K19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="N19" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="P19" t="s">
-        <v>865</v>
+        <v>700</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="Q19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="57">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>383</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>494</v>
+        <v>382</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" t="s">
+        <v>663</v>
+      </c>
+      <c r="J20" t="s">
+        <v>464</v>
+      </c>
+      <c r="K20" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" t="s">
+        <v>664</v>
+      </c>
+      <c r="M20" t="s">
+        <v>465</v>
       </c>
       <c r="N20" t="s">
-        <v>137</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>138</v>
+        <v>90</v>
+      </c>
+      <c r="O20" t="s">
+        <v>665</v>
+      </c>
+      <c r="P20" t="s">
+        <v>466</v>
       </c>
       <c r="Q20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="99.75">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>385</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
+        <v>382</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21" t="s">
-        <v>642</v>
-      </c>
-      <c r="M21" t="s">
-        <v>447</v>
+        <v>81</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="N21" t="s">
-        <v>55</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>448</v>
+        <v>82</v>
+      </c>
+      <c r="O21" t="s">
+        <v>659</v>
+      </c>
+      <c r="P21" t="s">
+        <v>460</v>
       </c>
       <c r="Q21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="42.75">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>387</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L22" t="s">
-        <v>651</v>
-      </c>
-      <c r="M22" t="s">
-        <v>73</v>
+        <v>382</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="K22" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="N22" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="O22" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="P22" t="s">
-        <v>73</v>
+        <v>472</v>
       </c>
       <c r="Q22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="57">
       <c r="A23" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
         <v>382</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="E23" t="s">
-        <v>216</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="H23" t="s">
-        <v>217</v>
-      </c>
-      <c r="I23" t="s">
-        <v>678</v>
-      </c>
-      <c r="J23" t="s">
-        <v>109</v>
+      <c r="I23" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="K23" t="s">
-        <v>109</v>
-      </c>
-      <c r="L23" t="s">
-        <v>678</v>
-      </c>
-      <c r="M23" t="s">
-        <v>109</v>
+        <v>195</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="N23" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="O23" t="s">
-        <v>678</v>
+        <v>739</v>
       </c>
       <c r="P23" t="s">
-        <v>109</v>
+        <v>530</v>
       </c>
       <c r="Q23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="42.75">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s">
         <v>382</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E24" t="s">
-        <v>214</v>
-      </c>
-      <c r="I24" t="s">
-        <v>678</v>
-      </c>
-      <c r="J24" t="s">
-        <v>109</v>
+      <c r="I24" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="K24" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>678</v>
+        <v>750</v>
       </c>
       <c r="M24" t="s">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="N24" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="O24" t="s">
-        <v>678</v>
+        <v>751</v>
       </c>
       <c r="P24" t="s">
-        <v>109</v>
+        <v>540</v>
       </c>
       <c r="Q24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="57">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F25" t="s">
-        <v>706</v>
-      </c>
-      <c r="G25" t="s">
-        <v>150</v>
-      </c>
-      <c r="H25" t="s">
-        <v>150</v>
-      </c>
-      <c r="I25" t="s">
-        <v>706</v>
-      </c>
-      <c r="J25" t="s">
-        <v>150</v>
-      </c>
-      <c r="K25" t="s">
-        <v>150</v>
+        <v>509</v>
+      </c>
+      <c r="E25" t="s">
+        <v>163</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="L25" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="M25" t="s">
-        <v>150</v>
+        <v>511</v>
       </c>
       <c r="N25" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="O25" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>512</v>
       </c>
       <c r="Q25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="42.75">
       <c r="A26" t="s">
-        <v>306</v>
+        <v>184</v>
       </c>
       <c r="B26" t="s">
         <v>382</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="H26" t="s">
-        <v>307</v>
-      </c>
-      <c r="I26" t="s">
-        <v>706</v>
-      </c>
-      <c r="J26" t="s">
-        <v>150</v>
+      <c r="C26" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>522</v>
       </c>
       <c r="K26" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s">
-        <v>706</v>
+        <v>732</v>
       </c>
       <c r="M26" t="s">
-        <v>150</v>
+        <v>523</v>
       </c>
       <c r="N26" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="O26" t="s">
-        <v>706</v>
+        <v>733</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="Q26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="57">
       <c r="A27" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s">
         <v>382</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="H27" t="s">
-        <v>248</v>
-      </c>
-      <c r="I27" t="s">
-        <v>706</v>
-      </c>
-      <c r="J27" t="s">
-        <v>150</v>
+      <c r="C27" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>576</v>
       </c>
       <c r="K27" t="s">
-        <v>150</v>
+        <v>297</v>
       </c>
       <c r="L27" t="s">
-        <v>706</v>
+        <v>796</v>
       </c>
       <c r="M27" t="s">
-        <v>150</v>
+        <v>577</v>
       </c>
       <c r="N27" t="s">
-        <v>150</v>
+        <v>298</v>
       </c>
       <c r="O27" t="s">
-        <v>706</v>
+        <v>797</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>578</v>
       </c>
       <c r="Q27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s">
-        <v>385</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>546</v>
+        <v>382</v>
       </c>
       <c r="E28" t="s">
-        <v>224</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="H28" t="s">
-        <v>225</v>
-      </c>
-      <c r="I28" t="s">
-        <v>706</v>
-      </c>
-      <c r="J28" t="s">
-        <v>150</v>
+        <v>268</v>
       </c>
       <c r="K28" t="s">
-        <v>150</v>
-      </c>
-      <c r="L28" t="s">
-        <v>706</v>
-      </c>
-      <c r="M28" t="s">
-        <v>150</v>
+        <v>269</v>
       </c>
       <c r="N28" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="O28" t="s">
-        <v>706</v>
+        <v>784</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>569</v>
       </c>
       <c r="Q28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s">
         <v>382</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="H29" t="s">
-        <v>221</v>
-      </c>
-      <c r="I29" t="s">
-        <v>757</v>
-      </c>
-      <c r="J29" t="s">
-        <v>222</v>
-      </c>
-      <c r="K29" t="s">
-        <v>222</v>
-      </c>
       <c r="L29" t="s">
-        <v>757</v>
+        <v>786</v>
       </c>
       <c r="M29" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="N29" t="s">
-        <v>222</v>
-      </c>
-      <c r="O29" t="s">
-        <v>757</v>
-      </c>
-      <c r="P29" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="57">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
         <v>382</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="H30" t="s">
-        <v>227</v>
-      </c>
-      <c r="I30" t="s">
-        <v>761</v>
-      </c>
-      <c r="J30" t="s">
-        <v>228</v>
+      <c r="I30" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="K30" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s">
-        <v>761</v>
+        <v>678</v>
       </c>
       <c r="M30" t="s">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="N30" t="s">
-        <v>228</v>
-      </c>
-      <c r="O30" t="s">
-        <v>761</v>
-      </c>
-      <c r="P30" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="71.25">
       <c r="A31" t="s">
-        <v>198</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>740</v>
+        <v>628</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E31" t="s">
-        <v>199</v>
-      </c>
-      <c r="I31" t="s">
-        <v>741</v>
-      </c>
-      <c r="J31" t="s">
-        <v>200</v>
+        <v>433</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="K31" t="s">
-        <v>200</v>
-      </c>
-      <c r="L31" t="s">
-        <v>741</v>
-      </c>
-      <c r="M31" t="s">
-        <v>200</v>
+        <v>35</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="N31" t="s">
-        <v>200</v>
-      </c>
-      <c r="O31" t="s">
-        <v>741</v>
-      </c>
-      <c r="P31" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s">
-        <v>396</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>532</v>
+        <v>382</v>
+      </c>
+      <c r="C32" t="s">
+        <v>809</v>
+      </c>
+      <c r="D32" t="s">
+        <v>590</v>
       </c>
       <c r="E32" t="s">
-        <v>202</v>
-      </c>
-      <c r="I32" t="s">
-        <v>741</v>
-      </c>
-      <c r="J32" t="s">
-        <v>200</v>
-      </c>
-      <c r="K32" t="s">
-        <v>200</v>
-      </c>
-      <c r="L32" t="s">
-        <v>741</v>
-      </c>
-      <c r="M32" t="s">
-        <v>200</v>
-      </c>
-      <c r="N32" t="s">
-        <v>200</v>
-      </c>
-      <c r="O32" t="s">
-        <v>741</v>
-      </c>
-      <c r="P32" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="F32" t="s">
+        <v>810</v>
+      </c>
+      <c r="G32" t="s">
+        <v>591</v>
+      </c>
+      <c r="H32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s">
-        <v>395</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>534</v>
+        <v>382</v>
+      </c>
+      <c r="C33" t="s">
+        <v>807</v>
+      </c>
+      <c r="D33" t="s">
+        <v>588</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
-      </c>
-      <c r="I33" t="s">
-        <v>741</v>
-      </c>
-      <c r="J33" t="s">
-        <v>200</v>
-      </c>
-      <c r="K33" t="s">
-        <v>200</v>
-      </c>
-      <c r="L33" t="s">
-        <v>741</v>
-      </c>
-      <c r="M33" t="s">
-        <v>200</v>
-      </c>
-      <c r="N33" t="s">
-        <v>200</v>
-      </c>
-      <c r="O33" t="s">
-        <v>741</v>
-      </c>
-      <c r="P33" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="F33" t="s">
+        <v>808</v>
+      </c>
+      <c r="G33" t="s">
+        <v>589</v>
+      </c>
+      <c r="H33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s">
-        <v>395</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>533</v>
+        <v>382</v>
+      </c>
+      <c r="C34" t="s">
+        <v>805</v>
+      </c>
+      <c r="D34" t="s">
+        <v>586</v>
       </c>
       <c r="E34" t="s">
-        <v>204</v>
-      </c>
-      <c r="I34" t="s">
-        <v>741</v>
-      </c>
-      <c r="J34" t="s">
-        <v>200</v>
-      </c>
-      <c r="K34" t="s">
-        <v>200</v>
-      </c>
-      <c r="L34" t="s">
-        <v>741</v>
-      </c>
-      <c r="M34" t="s">
-        <v>200</v>
-      </c>
-      <c r="N34" t="s">
-        <v>200</v>
-      </c>
-      <c r="O34" t="s">
-        <v>741</v>
-      </c>
-      <c r="P34" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="F34" t="s">
+        <v>806</v>
+      </c>
+      <c r="G34" t="s">
+        <v>587</v>
+      </c>
+      <c r="H34" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="42.75">
       <c r="A35" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B35" t="s">
-        <v>401</v>
-      </c>
-      <c r="I35" t="s">
-        <v>811</v>
-      </c>
-      <c r="J35" t="s">
-        <v>592</v>
-      </c>
-      <c r="K35" t="s">
-        <v>317</v>
-      </c>
-      <c r="L35" t="s">
-        <v>812</v>
-      </c>
-      <c r="M35" t="s">
-        <v>593</v>
-      </c>
-      <c r="N35" t="s">
-        <v>318</v>
-      </c>
-      <c r="O35" t="s">
-        <v>813</v>
-      </c>
-      <c r="P35" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="H35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="57">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s">
         <v>382</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="N36" t="s">
-        <v>174</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="P36" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E36" t="s">
+        <v>325</v>
+      </c>
+      <c r="F36" t="s">
+        <v>817</v>
+      </c>
+      <c r="G36" t="s">
+        <v>598</v>
+      </c>
+      <c r="H36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="42.75">
       <c r="A37" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s">
         <v>382</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="N37" t="s">
-        <v>174</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="28.5">
       <c r="A38" t="s">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>615</v>
+        <v>788</v>
+      </c>
+      <c r="D38" t="s">
+        <v>283</v>
       </c>
       <c r="E38" t="s">
-        <v>373</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="K38" t="s">
-        <v>374</v>
-      </c>
-      <c r="L38" t="s">
-        <v>840</v>
-      </c>
-      <c r="M38" t="s">
-        <v>617</v>
-      </c>
-      <c r="N38" t="s">
-        <v>375</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>279</v>
       </c>
       <c r="B39" t="s">
         <v>382</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="K39" t="s">
-        <v>117</v>
-      </c>
-      <c r="L39" t="s">
-        <v>683</v>
-      </c>
-      <c r="M39" t="s">
-        <v>481</v>
-      </c>
-      <c r="N39" t="s">
-        <v>118</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>787</v>
+      </c>
+      <c r="D39" t="s">
+        <v>280</v>
+      </c>
+      <c r="E39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="85.5">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s">
         <v>382</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>631</v>
+        <v>780</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>436</v>
+        <v>565</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="K40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="N40" t="s">
-        <v>40</v>
-      </c>
-      <c r="O40" t="s">
-        <v>634</v>
-      </c>
-      <c r="P40" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="57">
       <c r="A41" t="s">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>762</v>
+        <v>695</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>549</v>
+        <v>493</v>
       </c>
       <c r="E41" t="s">
-        <v>230</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="K41" t="s">
-        <v>231</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="N41" t="s">
-        <v>232</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="42.75">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s">
         <v>382</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="K42" t="s">
-        <v>93</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="N42" t="s">
-        <v>94</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E42" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="71.25">
       <c r="A43" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="E43" t="s">
-        <v>250</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K43" t="s">
-        <v>251</v>
-      </c>
-      <c r="L43" t="s">
-        <v>778</v>
-      </c>
-      <c r="M43" t="s">
-        <v>563</v>
-      </c>
-      <c r="N43" t="s">
-        <v>252</v>
-      </c>
-      <c r="O43" t="s">
-        <v>779</v>
-      </c>
-      <c r="P43" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="71.25">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
         <v>382</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>430</v>
+      <c r="C44" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
       </c>
       <c r="K44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>431</v>
+        <v>49</v>
       </c>
       <c r="N44" t="s">
-        <v>19</v>
-      </c>
-      <c r="O44" t="s">
-        <v>625</v>
-      </c>
-      <c r="P44" t="s">
-        <v>432</v>
+        <v>50</v>
       </c>
       <c r="Q44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="71.25">
       <c r="A45" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="L45" t="s">
-        <v>800</v>
-      </c>
-      <c r="M45" t="s">
-        <v>581</v>
+        <v>423</v>
+      </c>
+      <c r="K45" t="s">
+        <v>295</v>
       </c>
       <c r="N45" t="s">
-        <v>303</v>
-      </c>
-      <c r="O45" t="s">
-        <v>801</v>
-      </c>
-      <c r="P45" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="71.25">
       <c r="A46" t="s">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="B46" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>770</v>
+        <v>709</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E46" t="s">
-        <v>240</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="K46" t="s">
-        <v>241</v>
-      </c>
-      <c r="L46" t="s">
-        <v>772</v>
-      </c>
-      <c r="M46" t="s">
-        <v>407</v>
-      </c>
-      <c r="N46" t="s">
-        <v>242</v>
-      </c>
-      <c r="O46" t="s">
-        <v>773</v>
-      </c>
-      <c r="P46" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="85.5">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>655</v>
+        <v>818</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>457</v>
+        <v>599</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="K47" t="s">
-        <v>79</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="N47" t="s">
-        <v>79</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="57">
       <c r="A48" t="s">
-        <v>370</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>834</v>
+        <v>782</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="N48" t="s">
-        <v>371</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+      <c r="E48" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="B49" t="s">
         <v>382</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="E49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>441</v>
+        <v>263</v>
       </c>
       <c r="K49" t="s">
-        <v>44</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="N49" t="s">
-        <v>45</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="57">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="B50" t="s">
-        <v>388</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>454</v>
+        <v>382</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="K50" t="s">
-        <v>75</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="N50" t="s">
-        <v>76</v>
-      </c>
-      <c r="O50" t="s">
-        <v>654</v>
-      </c>
-      <c r="P50" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>292</v>
       </c>
       <c r="B51" t="s">
         <v>382</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="D51" t="s">
-        <v>111</v>
-      </c>
       <c r="E51" t="s">
-        <v>112</v>
-      </c>
-      <c r="L51" t="s">
-        <v>680</v>
-      </c>
-      <c r="M51" t="s">
-        <v>113</v>
-      </c>
-      <c r="N51" t="s">
-        <v>114</v>
-      </c>
-      <c r="O51" t="s">
-        <v>681</v>
-      </c>
-      <c r="P51" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="42.75">
+      <c r="A53" t="s">
+        <v>334</v>
+      </c>
+      <c r="B53" t="s">
+        <v>402</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E53" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="57">
+      <c r="A54" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" t="s">
+        <v>398</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E54" t="s">
+        <v>230</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="K54" t="s">
+        <v>231</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="N54" t="s">
+        <v>232</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" t="s">
+        <v>336</v>
+      </c>
+      <c r="B55" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="71.25">
+      <c r="A56" t="s">
+        <v>343</v>
+      </c>
+      <c r="B56" t="s">
+        <v>404</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E56" t="s">
+        <v>344</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="K56" t="s">
+        <v>345</v>
+      </c>
+      <c r="L56" t="s">
+        <v>823</v>
+      </c>
+      <c r="M56" t="s">
+        <v>604</v>
+      </c>
+      <c r="N56" t="s">
+        <v>346</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="99.75">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" t="s">
+        <v>388</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="K57" t="s">
+        <v>75</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="N57" t="s">
+        <v>76</v>
+      </c>
+      <c r="O57" t="s">
+        <v>654</v>
+      </c>
+      <c r="P57" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="99.75">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" t="s">
+        <v>388</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="K58" t="s">
+        <v>81</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="N58" t="s">
+        <v>85</v>
+      </c>
+      <c r="O58" t="s">
+        <v>661</v>
+      </c>
+      <c r="P58" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="42.75">
+      <c r="A59" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" t="s">
+        <v>388</v>
+      </c>
+      <c r="C59" t="s">
+        <v>725</v>
+      </c>
+      <c r="D59" t="s">
+        <v>409</v>
+      </c>
+      <c r="E59" t="s">
+        <v>178</v>
+      </c>
+      <c r="L59" t="s">
+        <v>726</v>
+      </c>
+      <c r="M59" t="s">
+        <v>518</v>
+      </c>
+      <c r="N59" t="s">
+        <v>179</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="P59" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="42.75">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" t="s">
+        <v>389</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E60" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="K60" t="s">
+        <v>79</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="N60" t="s">
+        <v>79</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="57">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>387</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E61" t="s">
+        <v>72</v>
+      </c>
+      <c r="L61" t="s">
+        <v>651</v>
+      </c>
+      <c r="M61" t="s">
+        <v>73</v>
+      </c>
+      <c r="N61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O61" t="s">
+        <v>651</v>
+      </c>
+      <c r="P61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" t="s">
+        <v>288</v>
+      </c>
+      <c r="B62" t="s">
+        <v>387</v>
+      </c>
+      <c r="C62" t="s">
+        <v>791</v>
+      </c>
+      <c r="D62" t="s">
+        <v>289</v>
+      </c>
+      <c r="E62" t="s">
+        <v>290</v>
+      </c>
+      <c r="L62" t="s">
+        <v>792</v>
+      </c>
+      <c r="M62" t="s">
+        <v>573</v>
+      </c>
+      <c r="N62" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="42.75">
+      <c r="A63" t="s">
+        <v>285</v>
+      </c>
+      <c r="B63" t="s">
+        <v>387</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E63" t="s">
+        <v>286</v>
+      </c>
+      <c r="L63" t="s">
+        <v>790</v>
+      </c>
+      <c r="M63" t="s">
+        <v>572</v>
+      </c>
+      <c r="N63" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="28.5">
+      <c r="A64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s">
+        <v>383</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="N64" t="s">
+        <v>137</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>383</v>
+      </c>
+      <c r="C65" t="s">
+        <v>626</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>626</v>
+      </c>
+      <c r="J65" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65" t="s">
+        <v>627</v>
+      </c>
+      <c r="M65" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="71.25">
+      <c r="A66" t="s">
+        <v>372</v>
+      </c>
+      <c r="B66" t="s">
+        <v>384</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E66" t="s">
+        <v>373</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="K66" t="s">
+        <v>374</v>
+      </c>
+      <c r="L66" t="s">
+        <v>840</v>
+      </c>
+      <c r="M66" t="s">
+        <v>617</v>
+      </c>
+      <c r="N66" t="s">
+        <v>375</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="57">
+      <c r="A67" t="s">
+        <v>348</v>
+      </c>
+      <c r="B67" t="s">
+        <v>384</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="D67" t="s">
+        <v>349</v>
+      </c>
+      <c r="E67" t="s">
+        <v>350</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="K67" t="s">
+        <v>351</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="N67" t="s">
+        <v>174</v>
+      </c>
+      <c r="O67" t="s">
+        <v>828</v>
+      </c>
+      <c r="P67" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="28.5">
+      <c r="A68" t="s">
+        <v>361</v>
+      </c>
+      <c r="B68" t="s">
+        <v>384</v>
+      </c>
+      <c r="C68" t="s">
+        <v>829</v>
+      </c>
+      <c r="D68" t="s">
+        <v>362</v>
+      </c>
+      <c r="E68" t="s">
+        <v>363</v>
+      </c>
+      <c r="L68" t="s">
+        <v>830</v>
+      </c>
+      <c r="M68" t="s">
+        <v>608</v>
+      </c>
+      <c r="N68" t="s">
+        <v>364</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="P68" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="99.75">
+      <c r="A69" t="s">
+        <v>207</v>
+      </c>
+      <c r="B69" t="s">
+        <v>384</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K69" t="s">
+        <v>208</v>
+      </c>
+      <c r="L69" t="s">
+        <v>747</v>
+      </c>
+      <c r="M69" t="s">
+        <v>419</v>
+      </c>
+      <c r="N69" t="s">
+        <v>420</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="28.5">
+      <c r="A70" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" t="s">
+        <v>384</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E70" t="s">
+        <v>63</v>
+      </c>
+      <c r="K70" t="s">
+        <v>64</v>
+      </c>
+      <c r="L70" t="s">
+        <v>649</v>
+      </c>
+      <c r="M70" t="s">
+        <v>406</v>
+      </c>
+      <c r="N70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="42.75">
+      <c r="A71" t="s">
+        <v>367</v>
+      </c>
+      <c r="B71" t="s">
+        <v>384</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E71" t="s">
+        <v>368</v>
+      </c>
+      <c r="L71" t="s">
+        <v>833</v>
+      </c>
+      <c r="M71" t="s">
+        <v>610</v>
+      </c>
+      <c r="N71" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="57">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" t="s">
+        <v>384</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="128.25">
+      <c r="A73" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" t="s">
+        <v>391</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E73" t="s">
+        <v>128</v>
+      </c>
+      <c r="I73" t="s">
+        <v>686</v>
+      </c>
+      <c r="J73" t="s">
+        <v>484</v>
+      </c>
+      <c r="K73" t="s">
+        <v>122</v>
+      </c>
+      <c r="L73" t="s">
+        <v>687</v>
+      </c>
+      <c r="M73" t="s">
+        <v>485</v>
+      </c>
+      <c r="N73" t="s">
+        <v>123</v>
+      </c>
+      <c r="O73" t="s">
+        <v>688</v>
+      </c>
+      <c r="P73" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="142.5">
+      <c r="A74" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" t="s">
+        <v>391</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E74" t="s">
+        <v>126</v>
+      </c>
+      <c r="I74" t="s">
+        <v>686</v>
+      </c>
+      <c r="J74" t="s">
+        <v>484</v>
+      </c>
+      <c r="K74" t="s">
+        <v>122</v>
+      </c>
+      <c r="L74" t="s">
+        <v>687</v>
+      </c>
+      <c r="M74" t="s">
+        <v>485</v>
+      </c>
+      <c r="N74" t="s">
+        <v>123</v>
+      </c>
+      <c r="O74" t="s">
+        <v>688</v>
+      </c>
+      <c r="P74" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="71.25">
+      <c r="A75" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" t="s">
+        <v>391</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E75" t="s">
+        <v>130</v>
+      </c>
+      <c r="I75" t="s">
+        <v>692</v>
+      </c>
+      <c r="J75" t="s">
+        <v>490</v>
+      </c>
+      <c r="K75" t="s">
+        <v>131</v>
+      </c>
+      <c r="L75" t="s">
+        <v>693</v>
+      </c>
+      <c r="M75" t="s">
+        <v>491</v>
+      </c>
+      <c r="N75" t="s">
+        <v>132</v>
+      </c>
+      <c r="O75" t="s">
+        <v>694</v>
+      </c>
+      <c r="P75" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="156.75">
+      <c r="A76" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" t="s">
+        <v>397</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E76" t="s">
+        <v>219</v>
+      </c>
+      <c r="K76" t="s">
+        <v>109</v>
+      </c>
+      <c r="N76" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="42.75">
+      <c r="A77" t="s">
+        <v>272</v>
+      </c>
+      <c r="B77" t="s">
+        <v>400</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E77" t="s">
+        <v>273</v>
+      </c>
+      <c r="K77" t="s">
+        <v>269</v>
+      </c>
+      <c r="N77" t="s">
+        <v>274</v>
+      </c>
+      <c r="O77" t="s">
+        <v>784</v>
+      </c>
+      <c r="P77" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" t="s">
+        <v>337</v>
+      </c>
+      <c r="B78" t="s">
+        <v>400</v>
+      </c>
+      <c r="L78" t="s">
+        <v>820</v>
+      </c>
+      <c r="M78" t="s">
+        <v>601</v>
+      </c>
+      <c r="N78" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="99.75">
+      <c r="A79" t="s">
+        <v>249</v>
+      </c>
+      <c r="B79" t="s">
+        <v>399</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E79" t="s">
+        <v>250</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="K79" t="s">
+        <v>251</v>
+      </c>
+      <c r="L79" t="s">
+        <v>778</v>
+      </c>
+      <c r="M79" t="s">
+        <v>563</v>
+      </c>
+      <c r="N79" t="s">
+        <v>252</v>
+      </c>
+      <c r="O79" t="s">
+        <v>779</v>
+      </c>
+      <c r="P79" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="71.25">
+      <c r="A80" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" t="s">
+        <v>386</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E80" t="s">
+        <v>58</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K80" t="s">
+        <v>59</v>
+      </c>
+      <c r="L80" t="s">
+        <v>646</v>
+      </c>
+      <c r="M80" t="s">
+        <v>451</v>
+      </c>
+      <c r="N80" t="s">
+        <v>60</v>
+      </c>
+      <c r="O80" t="s">
+        <v>647</v>
+      </c>
+      <c r="P80" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="71.25">
+      <c r="A81" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" t="s">
+        <v>385</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E81" t="s">
+        <v>53</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="K81" t="s">
+        <v>54</v>
+      </c>
+      <c r="L81" t="s">
+        <v>642</v>
+      </c>
+      <c r="M81" t="s">
+        <v>447</v>
+      </c>
+      <c r="N81" t="s">
+        <v>55</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="57">
+      <c r="A82" t="s">
+        <v>223</v>
+      </c>
+      <c r="B82" t="s">
+        <v>385</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E82" t="s">
+        <v>224</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="H82" t="s">
+        <v>225</v>
+      </c>
+      <c r="I82" t="s">
+        <v>706</v>
+      </c>
+      <c r="J82" t="s">
+        <v>150</v>
+      </c>
+      <c r="K82" t="s">
+        <v>150</v>
+      </c>
+      <c r="L82" t="s">
+        <v>706</v>
+      </c>
+      <c r="M82" t="s">
+        <v>150</v>
+      </c>
+      <c r="N82" t="s">
+        <v>150</v>
+      </c>
+      <c r="O82" t="s">
+        <v>706</v>
+      </c>
+      <c r="P82" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="85.5">
+      <c r="A83" t="s">
+        <v>239</v>
+      </c>
+      <c r="B83" t="s">
+        <v>385</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E83" t="s">
+        <v>240</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="K83" t="s">
+        <v>241</v>
+      </c>
+      <c r="L83" t="s">
+        <v>772</v>
+      </c>
+      <c r="M83" t="s">
+        <v>407</v>
+      </c>
+      <c r="N83" t="s">
+        <v>242</v>
+      </c>
+      <c r="O83" t="s">
+        <v>773</v>
+      </c>
+      <c r="P83" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="99.75">
+      <c r="A84" t="s">
         <v>169</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B84" t="s">
         <v>385</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K84" t="s">
         <v>170</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L84" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="M52" s="2" t="s">
+      <c r="M84" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N84" t="s">
         <v>171</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O84" t="s">
         <v>722</v>
       </c>
-      <c r="P52" t="s">
+      <c r="P84" t="s">
         <v>408</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="Q84" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>343</v>
-      </c>
-      <c r="B53" t="s">
-        <v>404</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="E53" t="s">
-        <v>344</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="K53" t="s">
-        <v>345</v>
-      </c>
-      <c r="L53" t="s">
-        <v>823</v>
-      </c>
-      <c r="M53" t="s">
-        <v>604</v>
-      </c>
-      <c r="N53" t="s">
-        <v>346</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" t="s">
-        <v>386</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E54" t="s">
-        <v>58</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="K54" t="s">
-        <v>59</v>
-      </c>
-      <c r="L54" t="s">
-        <v>646</v>
-      </c>
-      <c r="M54" t="s">
-        <v>451</v>
-      </c>
-      <c r="N54" t="s">
-        <v>60</v>
-      </c>
-      <c r="O54" t="s">
-        <v>647</v>
-      </c>
-      <c r="P54" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="85" spans="1:17" ht="71.25">
+      <c r="A85" t="s">
         <v>234</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B85" t="s">
         <v>385</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E85" t="s">
         <v>235</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J85" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K85" t="s">
         <v>236</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L85" t="s">
         <v>768</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M85" t="s">
         <v>555</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N85" t="s">
         <v>237</v>
       </c>
-      <c r="O55" s="2" t="s">
+      <c r="O85" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="P55" s="2" t="s">
+      <c r="P85" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="Q85" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="86" spans="1:17" ht="71.25">
+      <c r="A86" t="s">
         <v>157</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B86" t="s">
         <v>385</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E86" t="s">
         <v>158</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K86" t="s">
         <v>159</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L86" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="M56" s="2" t="s">
+      <c r="M86" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N86" t="s">
         <v>160</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O86" t="s">
         <v>713</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P86" t="s">
         <v>508</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="Q86" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="195" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="87" spans="1:17" ht="285">
+      <c r="A87" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" t="s">
+        <v>385</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="L87" t="s">
+        <v>729</v>
+      </c>
+      <c r="M87" t="s">
+        <v>521</v>
+      </c>
+      <c r="N87" t="s">
+        <v>183</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="P87" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="28.5">
+      <c r="A88" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" t="s">
+        <v>385</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E88" t="s">
+        <v>191</v>
+      </c>
+      <c r="I88" t="s">
+        <v>735</v>
+      </c>
+      <c r="J88" t="s">
+        <v>526</v>
+      </c>
+      <c r="K88" t="s">
+        <v>192</v>
+      </c>
+      <c r="L88" t="s">
+        <v>736</v>
+      </c>
+      <c r="M88" t="s">
+        <v>527</v>
+      </c>
+      <c r="N88" t="s">
+        <v>193</v>
+      </c>
+      <c r="O88" t="s">
+        <v>736</v>
+      </c>
+      <c r="P88" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="57">
+      <c r="A89" t="s">
+        <v>256</v>
+      </c>
+      <c r="B89" t="s">
+        <v>385</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E89" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="71.25">
+      <c r="A90" t="s">
+        <v>300</v>
+      </c>
+      <c r="B90" t="s">
+        <v>385</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E90" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="99.75">
+      <c r="A91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
+        <v>385</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E91" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="85.5">
+      <c r="A92" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" t="s">
+        <v>394</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="K92" t="s">
+        <v>166</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="N92" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="99.75">
+      <c r="A93" t="s">
+        <v>302</v>
+      </c>
+      <c r="B93" t="s">
+        <v>393</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="L93" t="s">
+        <v>800</v>
+      </c>
+      <c r="M93" t="s">
+        <v>581</v>
+      </c>
+      <c r="N93" t="s">
+        <v>303</v>
+      </c>
+      <c r="O93" t="s">
+        <v>801</v>
+      </c>
+      <c r="P93" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="85.5">
+      <c r="A94" t="s">
+        <v>151</v>
+      </c>
+      <c r="B94" t="s">
+        <v>393</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D94" t="s">
+        <v>152</v>
+      </c>
+      <c r="E94" t="s">
+        <v>153</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H94" t="s">
+        <v>154</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="K94" t="s">
+        <v>146</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="N94" t="s">
+        <v>147</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="71.25">
+      <c r="A95" t="s">
+        <v>847</v>
+      </c>
+      <c r="B95" t="s">
+        <v>848</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D95" t="s">
+        <v>849</v>
+      </c>
+      <c r="E95" t="s">
+        <v>850</v>
+      </c>
+      <c r="I95" t="s">
+        <v>861</v>
+      </c>
+      <c r="J95" t="s">
+        <v>851</v>
+      </c>
+      <c r="K95" t="s">
+        <v>852</v>
+      </c>
+      <c r="L95" t="s">
+        <v>862</v>
+      </c>
+      <c r="M95" t="s">
+        <v>853</v>
+      </c>
+      <c r="N95" t="s">
+        <v>854</v>
+      </c>
+      <c r="O95" t="s">
+        <v>863</v>
+      </c>
+      <c r="P95" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="42.75">
+      <c r="A96" t="s">
+        <v>857</v>
+      </c>
+      <c r="B96" t="s">
+        <v>858</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D96" t="s">
+        <v>859</v>
+      </c>
+      <c r="E96" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="71.25">
+      <c r="A97" t="s">
+        <v>339</v>
+      </c>
+      <c r="B97" t="s">
+        <v>876</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="D97" t="s">
+        <v>877</v>
+      </c>
+      <c r="E97" t="s">
+        <v>878</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="K97" t="s">
+        <v>340</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="N97" t="s">
+        <v>341</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="299.25">
+      <c r="A98" t="s">
+        <v>353</v>
+      </c>
+      <c r="B98" t="s">
+        <v>876</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D98" t="s">
+        <v>882</v>
+      </c>
+      <c r="E98" t="s">
+        <v>883</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="K98" t="s">
+        <v>354</v>
+      </c>
+      <c r="L98" t="s">
+        <v>1072</v>
+      </c>
+      <c r="M98" t="s">
+        <v>885</v>
+      </c>
+      <c r="N98" t="s">
+        <v>355</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="28.5">
+      <c r="A99" t="s">
+        <v>887</v>
+      </c>
+      <c r="B99" t="s">
+        <v>888</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D99" t="s">
+        <v>889</v>
+      </c>
+      <c r="E99" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="171">
+      <c r="A100" t="s">
+        <v>893</v>
+      </c>
+      <c r="B100" t="s">
+        <v>894</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="E100" t="s">
+        <v>896</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="N100" t="s">
+        <v>900</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="P100" t="s">
+        <v>901</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="42.75">
+      <c r="A101" t="s">
+        <v>903</v>
+      </c>
+      <c r="B101" t="s">
+        <v>904</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="E101" t="s">
+        <v>906</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="K101" t="s">
+        <v>908</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="N101" t="s">
+        <v>910</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="28.5">
+      <c r="A102" t="s">
+        <v>915</v>
+      </c>
+      <c r="B102" t="s">
+        <v>904</v>
+      </c>
+      <c r="C102" t="s">
+        <v>914</v>
+      </c>
+      <c r="D102" t="s">
+        <v>914</v>
+      </c>
+      <c r="E102" t="s">
+        <v>914</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J102" t="s">
+        <v>916</v>
+      </c>
+      <c r="K102" t="s">
+        <v>917</v>
+      </c>
+      <c r="L102" t="s">
+        <v>1062</v>
+      </c>
+      <c r="M102" t="s">
+        <v>918</v>
+      </c>
+      <c r="N102" t="s">
+        <v>919</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" t="s">
+        <v>922</v>
+      </c>
+      <c r="B103" t="s">
+        <v>904</v>
+      </c>
+      <c r="C103" t="s">
+        <v>914</v>
+      </c>
+      <c r="D103" t="s">
+        <v>914</v>
+      </c>
+      <c r="E103" t="s">
+        <v>914</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J103" t="s">
+        <v>923</v>
+      </c>
+      <c r="K103" t="s">
+        <v>924</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M103" t="s">
+        <v>925</v>
+      </c>
+      <c r="N103" t="s">
+        <v>926</v>
+      </c>
+      <c r="O103" t="s">
+        <v>927</v>
+      </c>
+      <c r="P103" t="s">
+        <v>927</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" t="s">
+        <v>913</v>
+      </c>
+      <c r="B104" t="s">
+        <v>904</v>
+      </c>
+      <c r="C104" t="s">
+        <v>914</v>
+      </c>
+      <c r="D104" t="s">
+        <v>914</v>
+      </c>
+      <c r="E104" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="85.5">
+      <c r="A105" t="s">
+        <v>929</v>
+      </c>
+      <c r="B105" t="s">
+        <v>930</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="E105" t="s">
+        <v>932</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="K105" t="s">
+        <v>934</v>
+      </c>
+      <c r="L105" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M105" t="s">
+        <v>935</v>
+      </c>
+      <c r="N105" t="s">
+        <v>936</v>
+      </c>
+      <c r="O105" t="s">
+        <v>1080</v>
+      </c>
+      <c r="P105" t="s">
+        <v>937</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" t="s">
+        <v>957</v>
+      </c>
+      <c r="B106" t="s">
+        <v>947</v>
+      </c>
+      <c r="I106" t="s">
+        <v>958</v>
+      </c>
+      <c r="J106" t="s">
+        <v>958</v>
+      </c>
+      <c r="K106" t="s">
+        <v>959</v>
+      </c>
+      <c r="L106" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M106" t="s">
+        <v>960</v>
+      </c>
+      <c r="N106" t="s">
+        <v>274</v>
+      </c>
+      <c r="O106" t="s">
+        <v>961</v>
+      </c>
+      <c r="P106" t="s">
+        <v>961</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="28.5">
+      <c r="A107" t="s">
+        <v>950</v>
+      </c>
+      <c r="B107" t="s">
+        <v>947</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="E107" t="s">
+        <v>949</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="J107" t="s">
+        <v>951</v>
+      </c>
+      <c r="K107" t="s">
+        <v>952</v>
+      </c>
+      <c r="L107" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M107" t="s">
+        <v>953</v>
+      </c>
+      <c r="N107" t="s">
+        <v>954</v>
+      </c>
+      <c r="O107" t="s">
+        <v>955</v>
+      </c>
+      <c r="P107" t="s">
+        <v>955</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="28.5">
+      <c r="A108" t="s">
+        <v>946</v>
+      </c>
+      <c r="B108" t="s">
+        <v>947</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="E108" t="s">
+        <v>949</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="K108" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109" t="s">
+        <v>969</v>
+      </c>
+      <c r="B109" t="s">
+        <v>964</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J109" t="s">
+        <v>965</v>
+      </c>
+      <c r="K109" t="s">
+        <v>966</v>
+      </c>
+      <c r="L109" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M109" t="s">
+        <v>970</v>
+      </c>
+      <c r="N109" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" t="s">
+        <v>963</v>
+      </c>
+      <c r="B110" t="s">
+        <v>964</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J110" t="s">
+        <v>965</v>
+      </c>
+      <c r="K110" t="s">
+        <v>966</v>
+      </c>
+      <c r="L110" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M110" t="s">
+        <v>967</v>
+      </c>
+      <c r="N110" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="28.5">
+      <c r="A111" t="s">
+        <v>972</v>
+      </c>
+      <c r="B111" t="s">
+        <v>973</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="E111" t="s">
+        <v>975</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="H111" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="71.25">
+      <c r="A112" t="s">
+        <v>976</v>
+      </c>
+      <c r="B112" t="s">
+        <v>977</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="E112" t="s">
+        <v>979</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J112" t="s">
+        <v>980</v>
+      </c>
+      <c r="K112" t="s">
+        <v>981</v>
+      </c>
+      <c r="L112" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M112" t="s">
+        <v>982</v>
+      </c>
+      <c r="N112" t="s">
+        <v>983</v>
+      </c>
+      <c r="O112" t="s">
+        <v>1080</v>
+      </c>
+      <c r="P112" t="s">
+        <v>937</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="28.5">
+      <c r="A113" t="s">
+        <v>984</v>
+      </c>
+      <c r="B113" t="s">
+        <v>985</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="E113" t="s">
+        <v>987</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J113" t="s">
+        <v>988</v>
+      </c>
+      <c r="K113" t="s">
+        <v>989</v>
+      </c>
+      <c r="L113" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N113" t="s">
+        <v>990</v>
+      </c>
+      <c r="O113" t="s">
+        <v>1079</v>
+      </c>
+      <c r="P113" t="s">
+        <v>991</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="42.75">
+      <c r="A114" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B114" t="s">
+        <v>995</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K114" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L114" t="s">
+        <v>1071</v>
+      </c>
+      <c r="M114" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N114" t="s">
+        <v>1006</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="42.75">
+      <c r="A115" t="s">
+        <v>994</v>
+      </c>
+      <c r="B115" t="s">
+        <v>995</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="K115" t="s">
+        <v>997</v>
+      </c>
+      <c r="L115" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M115" t="s">
+        <v>998</v>
+      </c>
+      <c r="N115" t="s">
+        <v>999</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="85.5">
+      <c r="A116" t="s">
+        <v>939</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J116" t="s">
+        <v>940</v>
+      </c>
+      <c r="K116" t="s">
+        <v>941</v>
+      </c>
+      <c r="L116" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M116" t="s">
+        <v>942</v>
+      </c>
+      <c r="N116" t="s">
+        <v>943</v>
+      </c>
+      <c r="O116" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P116" t="s">
+        <v>944</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="57">
+      <c r="A117" t="s">
+        <v>357</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="E117" t="s">
+        <v>358</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J117" t="s">
+        <v>873</v>
+      </c>
+      <c r="K117" t="s">
+        <v>359</v>
+      </c>
+      <c r="L117" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M117" t="s">
+        <v>874</v>
+      </c>
+      <c r="N117" t="s">
+        <v>993</v>
+      </c>
+      <c r="O117" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P117" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" ht="42.75">
+      <c r="A118" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E118" t="s">
+        <v>31</v>
+      </c>
+      <c r="L118" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M118" t="s">
+        <v>864</v>
+      </c>
+      <c r="N118" t="s">
+        <v>32</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="P118" t="s">
+        <v>865</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="71.25">
+      <c r="A119" t="s">
+        <v>327</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E119" t="s">
+        <v>328</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J119" t="s">
+        <v>869</v>
+      </c>
+      <c r="K119" t="s">
+        <v>329</v>
+      </c>
+      <c r="L119" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M119" t="s">
+        <v>870</v>
+      </c>
+      <c r="N119" t="s">
+        <v>330</v>
+      </c>
+      <c r="O119" t="s">
+        <v>1041</v>
+      </c>
+      <c r="P119" t="s">
+        <v>871</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="57">
+      <c r="A120" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E120" t="s">
+        <v>67</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J120" t="s">
+        <v>866</v>
+      </c>
+      <c r="K120" t="s">
+        <v>68</v>
+      </c>
+      <c r="L120" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M120" t="s">
+        <v>867</v>
+      </c>
+      <c r="N120" t="s">
+        <v>69</v>
+      </c>
+      <c r="O120" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P120" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="71.25">
+      <c r="A121" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K121" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="M121" t="s">
+        <v>1020</v>
+      </c>
+      <c r="N121" t="s">
+        <v>1021</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="P121" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="71.25">
+      <c r="A122" t="s">
+        <v>149</v>
+      </c>
+      <c r="B122" t="s">
+        <v>392</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F122" t="s">
+        <v>706</v>
+      </c>
+      <c r="G122" t="s">
+        <v>150</v>
+      </c>
+      <c r="H122" t="s">
+        <v>150</v>
+      </c>
+      <c r="I122" t="s">
+        <v>706</v>
+      </c>
+      <c r="J122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K122" t="s">
+        <v>150</v>
+      </c>
+      <c r="L122" t="s">
+        <v>706</v>
+      </c>
+      <c r="M122" t="s">
+        <v>150</v>
+      </c>
+      <c r="N122" t="s">
+        <v>150</v>
+      </c>
+      <c r="O122" t="s">
+        <v>706</v>
+      </c>
+      <c r="P122" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="57">
+      <c r="A123" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" t="s">
+        <v>395</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E123" t="s">
+        <v>199</v>
+      </c>
+      <c r="I123" t="s">
+        <v>741</v>
+      </c>
+      <c r="J123" t="s">
+        <v>200</v>
+      </c>
+      <c r="K123" t="s">
+        <v>200</v>
+      </c>
+      <c r="L123" t="s">
+        <v>741</v>
+      </c>
+      <c r="M123" t="s">
+        <v>200</v>
+      </c>
+      <c r="N123" t="s">
+        <v>200</v>
+      </c>
+      <c r="O123" t="s">
+        <v>741</v>
+      </c>
+      <c r="P123" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="85.5">
+      <c r="A124" t="s">
+        <v>205</v>
+      </c>
+      <c r="B124" t="s">
+        <v>395</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E124" t="s">
+        <v>206</v>
+      </c>
+      <c r="I124" t="s">
+        <v>741</v>
+      </c>
+      <c r="J124" t="s">
+        <v>200</v>
+      </c>
+      <c r="K124" t="s">
+        <v>200</v>
+      </c>
+      <c r="L124" t="s">
+        <v>741</v>
+      </c>
+      <c r="M124" t="s">
+        <v>200</v>
+      </c>
+      <c r="N124" t="s">
+        <v>200</v>
+      </c>
+      <c r="O124" t="s">
+        <v>741</v>
+      </c>
+      <c r="P124" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="114">
+      <c r="A125" t="s">
+        <v>203</v>
+      </c>
+      <c r="B125" t="s">
+        <v>395</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E125" t="s">
+        <v>204</v>
+      </c>
+      <c r="I125" t="s">
+        <v>741</v>
+      </c>
+      <c r="J125" t="s">
+        <v>200</v>
+      </c>
+      <c r="K125" t="s">
+        <v>200</v>
+      </c>
+      <c r="L125" t="s">
+        <v>741</v>
+      </c>
+      <c r="M125" t="s">
+        <v>200</v>
+      </c>
+      <c r="N125" t="s">
+        <v>200</v>
+      </c>
+      <c r="O125" t="s">
+        <v>741</v>
+      </c>
+      <c r="P125" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="42.75">
+      <c r="A126" t="s">
+        <v>120</v>
+      </c>
+      <c r="B126" t="s">
+        <v>390</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E126" t="s">
+        <v>121</v>
+      </c>
+      <c r="I126" t="s">
+        <v>686</v>
+      </c>
+      <c r="J126" t="s">
+        <v>484</v>
+      </c>
+      <c r="K126" t="s">
+        <v>122</v>
+      </c>
+      <c r="L126" t="s">
+        <v>687</v>
+      </c>
+      <c r="M126" t="s">
+        <v>485</v>
+      </c>
+      <c r="N126" t="s">
+        <v>123</v>
+      </c>
+      <c r="O126" t="s">
+        <v>688</v>
+      </c>
+      <c r="P126" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="57">
+      <c r="A127" t="s">
+        <v>201</v>
+      </c>
+      <c r="B127" t="s">
+        <v>396</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E127" t="s">
+        <v>202</v>
+      </c>
+      <c r="I127" t="s">
+        <v>741</v>
+      </c>
+      <c r="J127" t="s">
+        <v>200</v>
+      </c>
+      <c r="K127" t="s">
+        <v>200</v>
+      </c>
+      <c r="L127" t="s">
+        <v>741</v>
+      </c>
+      <c r="M127" t="s">
+        <v>200</v>
+      </c>
+      <c r="N127" t="s">
+        <v>200</v>
+      </c>
+      <c r="O127" t="s">
+        <v>741</v>
+      </c>
+      <c r="P127" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="185.25">
+      <c r="A128" t="s">
         <v>377</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B128" t="s">
         <v>396</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E128" t="s">
         <v>378</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I128" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J128" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K128" t="s">
         <v>379</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L128" t="s">
         <v>844</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M128" t="s">
         <v>621</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N128" t="s">
         <v>380</v>
       </c>
-      <c r="O57" s="2" t="s">
+      <c r="O128" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="P57" s="2" t="s">
+      <c r="P128" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="Q128" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" t="s">
-        <v>390</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="E58" t="s">
-        <v>121</v>
-      </c>
-      <c r="I58" t="s">
-        <v>686</v>
-      </c>
-      <c r="J58" t="s">
-        <v>484</v>
-      </c>
-      <c r="K58" t="s">
-        <v>122</v>
-      </c>
-      <c r="L58" t="s">
-        <v>687</v>
-      </c>
-      <c r="M58" t="s">
-        <v>485</v>
-      </c>
-      <c r="N58" t="s">
-        <v>123</v>
-      </c>
-      <c r="O58" t="s">
-        <v>688</v>
-      </c>
-      <c r="P58" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="135" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" t="s">
-        <v>391</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="E59" t="s">
-        <v>128</v>
-      </c>
-      <c r="I59" t="s">
-        <v>686</v>
-      </c>
-      <c r="J59" t="s">
-        <v>484</v>
-      </c>
-      <c r="K59" t="s">
-        <v>122</v>
-      </c>
-      <c r="L59" t="s">
-        <v>687</v>
-      </c>
-      <c r="M59" t="s">
-        <v>485</v>
-      </c>
-      <c r="N59" t="s">
-        <v>123</v>
-      </c>
-      <c r="O59" t="s">
-        <v>688</v>
-      </c>
-      <c r="P59" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="150" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" t="s">
-        <v>391</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="E60" t="s">
-        <v>126</v>
-      </c>
-      <c r="I60" t="s">
-        <v>686</v>
-      </c>
-      <c r="J60" t="s">
-        <v>484</v>
-      </c>
-      <c r="K60" t="s">
-        <v>122</v>
-      </c>
-      <c r="L60" t="s">
-        <v>687</v>
-      </c>
-      <c r="M60" t="s">
-        <v>485</v>
-      </c>
-      <c r="N60" t="s">
-        <v>123</v>
-      </c>
-      <c r="O60" t="s">
-        <v>688</v>
-      </c>
-      <c r="P60" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>348</v>
-      </c>
-      <c r="B61" t="s">
-        <v>384</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="D61" t="s">
-        <v>349</v>
-      </c>
-      <c r="E61" t="s">
-        <v>350</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="K61" t="s">
-        <v>351</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="N61" t="s">
-        <v>174</v>
-      </c>
-      <c r="O61" t="s">
-        <v>828</v>
-      </c>
-      <c r="P61" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>144</v>
-      </c>
-      <c r="B62" t="s">
-        <v>382</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="H62" t="s">
-        <v>145</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="K62" t="s">
-        <v>146</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="N62" t="s">
-        <v>147</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>151</v>
-      </c>
-      <c r="B63" t="s">
-        <v>393</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="D63" t="s">
-        <v>152</v>
-      </c>
-      <c r="E63" t="s">
-        <v>153</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="H63" t="s">
-        <v>154</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="K63" t="s">
-        <v>146</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="N63" t="s">
-        <v>147</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>102</v>
-      </c>
-      <c r="B64" t="s">
-        <v>382</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E64" t="s">
-        <v>103</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="K64" t="s">
-        <v>104</v>
-      </c>
-      <c r="L64" t="s">
-        <v>675</v>
-      </c>
-      <c r="M64" t="s">
-        <v>476</v>
-      </c>
-      <c r="N64" t="s">
-        <v>105</v>
-      </c>
-      <c r="O64" t="s">
-        <v>676</v>
-      </c>
-      <c r="P64" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>361</v>
-      </c>
-      <c r="B65" t="s">
-        <v>384</v>
-      </c>
-      <c r="C65" t="s">
-        <v>829</v>
-      </c>
-      <c r="D65" t="s">
-        <v>362</v>
-      </c>
-      <c r="E65" t="s">
-        <v>363</v>
-      </c>
-      <c r="L65" t="s">
-        <v>830</v>
-      </c>
-      <c r="M65" t="s">
-        <v>608</v>
-      </c>
-      <c r="N65" t="s">
-        <v>364</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="P65" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="105" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B66" t="s">
-        <v>382</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="K66" t="s">
-        <v>141</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="N66" t="s">
-        <v>142</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" t="s">
-        <v>382</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="E67" t="s">
-        <v>88</v>
-      </c>
-      <c r="I67" t="s">
-        <v>663</v>
-      </c>
-      <c r="J67" t="s">
-        <v>464</v>
-      </c>
-      <c r="K67" t="s">
-        <v>89</v>
-      </c>
-      <c r="L67" t="s">
-        <v>664</v>
-      </c>
-      <c r="M67" t="s">
-        <v>465</v>
-      </c>
-      <c r="N67" t="s">
-        <v>90</v>
-      </c>
-      <c r="O67" t="s">
-        <v>665</v>
-      </c>
-      <c r="P67" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="105" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>80</v>
-      </c>
-      <c r="B68" t="s">
-        <v>382</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="K68" t="s">
-        <v>81</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="N68" t="s">
-        <v>82</v>
-      </c>
-      <c r="O68" t="s">
-        <v>659</v>
-      </c>
-      <c r="P68" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" ht="105" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" t="s">
-        <v>388</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="K69" t="s">
-        <v>81</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="N69" t="s">
-        <v>85</v>
-      </c>
-      <c r="O69" t="s">
-        <v>661</v>
-      </c>
-      <c r="P69" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>129</v>
-      </c>
-      <c r="B70" t="s">
-        <v>391</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="E70" t="s">
-        <v>130</v>
-      </c>
-      <c r="I70" t="s">
-        <v>692</v>
-      </c>
-      <c r="J70" t="s">
-        <v>490</v>
-      </c>
-      <c r="K70" t="s">
-        <v>131</v>
-      </c>
-      <c r="L70" t="s">
-        <v>693</v>
-      </c>
-      <c r="M70" t="s">
-        <v>491</v>
-      </c>
-      <c r="N70" t="s">
-        <v>132</v>
-      </c>
-      <c r="O70" t="s">
-        <v>694</v>
-      </c>
-      <c r="P70" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>96</v>
-      </c>
-      <c r="B71" t="s">
-        <v>382</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="K71" t="s">
-        <v>97</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="N71" t="s">
-        <v>98</v>
-      </c>
-      <c r="O71" t="s">
-        <v>671</v>
-      </c>
-      <c r="P71" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>194</v>
-      </c>
-      <c r="B72" t="s">
-        <v>382</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="K72" t="s">
-        <v>195</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="N72" t="s">
-        <v>196</v>
-      </c>
-      <c r="O72" t="s">
-        <v>739</v>
-      </c>
-      <c r="P72" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>209</v>
-      </c>
-      <c r="B73" t="s">
-        <v>382</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="K73" t="s">
-        <v>210</v>
-      </c>
-      <c r="L73" t="s">
-        <v>750</v>
-      </c>
-      <c r="M73" t="s">
-        <v>539</v>
-      </c>
-      <c r="N73" t="s">
-        <v>211</v>
-      </c>
-      <c r="O73" t="s">
-        <v>751</v>
-      </c>
-      <c r="P73" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>162</v>
-      </c>
-      <c r="B74" t="s">
-        <v>382</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E74" t="s">
-        <v>163</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="L74" t="s">
-        <v>716</v>
-      </c>
-      <c r="M74" t="s">
-        <v>511</v>
-      </c>
-      <c r="N74" t="s">
-        <v>164</v>
-      </c>
-      <c r="O74" t="s">
-        <v>717</v>
-      </c>
-      <c r="P74" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>184</v>
-      </c>
-      <c r="B75" t="s">
-        <v>382</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="D75" t="s">
-        <v>185</v>
-      </c>
-      <c r="E75" t="s">
-        <v>186</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="K75" t="s">
-        <v>187</v>
-      </c>
-      <c r="L75" t="s">
-        <v>732</v>
-      </c>
-      <c r="M75" t="s">
-        <v>523</v>
-      </c>
-      <c r="N75" t="s">
-        <v>188</v>
-      </c>
-      <c r="O75" t="s">
-        <v>733</v>
-      </c>
-      <c r="P75" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" ht="300" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>182</v>
-      </c>
-      <c r="B76" t="s">
-        <v>385</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="L76" t="s">
-        <v>729</v>
-      </c>
-      <c r="M76" t="s">
-        <v>521</v>
-      </c>
-      <c r="N76" t="s">
-        <v>183</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="P76" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>177</v>
-      </c>
-      <c r="B77" t="s">
-        <v>388</v>
-      </c>
-      <c r="C77" t="s">
-        <v>725</v>
-      </c>
-      <c r="D77" t="s">
-        <v>409</v>
-      </c>
-      <c r="E77" t="s">
-        <v>178</v>
-      </c>
-      <c r="L77" t="s">
-        <v>726</v>
-      </c>
-      <c r="M77" t="s">
-        <v>518</v>
-      </c>
-      <c r="N77" t="s">
-        <v>179</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="P77" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>296</v>
-      </c>
-      <c r="B78" t="s">
-        <v>382</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="K78" t="s">
-        <v>297</v>
-      </c>
-      <c r="L78" t="s">
-        <v>796</v>
-      </c>
-      <c r="M78" t="s">
-        <v>577</v>
-      </c>
-      <c r="N78" t="s">
-        <v>298</v>
-      </c>
-      <c r="O78" t="s">
-        <v>797</v>
-      </c>
-      <c r="P78" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>190</v>
-      </c>
-      <c r="B79" t="s">
-        <v>385</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="E79" t="s">
-        <v>191</v>
-      </c>
-      <c r="I79" t="s">
-        <v>735</v>
-      </c>
-      <c r="J79" t="s">
-        <v>526</v>
-      </c>
-      <c r="K79" t="s">
-        <v>192</v>
-      </c>
-      <c r="L79" t="s">
-        <v>736</v>
-      </c>
-      <c r="M79" t="s">
-        <v>527</v>
-      </c>
-      <c r="N79" t="s">
-        <v>193</v>
-      </c>
-      <c r="O79" t="s">
-        <v>736</v>
-      </c>
-      <c r="P79" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" ht="105" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>207</v>
-      </c>
-      <c r="B80" t="s">
-        <v>384</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="K80" t="s">
-        <v>208</v>
-      </c>
-      <c r="L80" t="s">
-        <v>747</v>
-      </c>
-      <c r="M80" t="s">
-        <v>419</v>
-      </c>
-      <c r="N80" t="s">
-        <v>420</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>272</v>
-      </c>
-      <c r="B81" t="s">
-        <v>400</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E81" t="s">
-        <v>273</v>
-      </c>
-      <c r="K81" t="s">
-        <v>269</v>
-      </c>
-      <c r="N81" t="s">
-        <v>274</v>
-      </c>
-      <c r="O81" t="s">
-        <v>784</v>
-      </c>
-      <c r="P81" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>267</v>
-      </c>
-      <c r="B82" t="s">
-        <v>382</v>
-      </c>
-      <c r="E82" t="s">
-        <v>268</v>
-      </c>
-      <c r="K82" t="s">
-        <v>269</v>
-      </c>
-      <c r="N82" t="s">
-        <v>270</v>
-      </c>
-      <c r="O82" t="s">
-        <v>784</v>
-      </c>
-      <c r="P82" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>847</v>
-      </c>
-      <c r="B83" t="s">
-        <v>848</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D83" t="s">
-        <v>849</v>
-      </c>
-      <c r="E83" t="s">
-        <v>850</v>
-      </c>
-      <c r="I83" t="s">
-        <v>861</v>
-      </c>
-      <c r="J83" t="s">
-        <v>851</v>
-      </c>
-      <c r="K83" t="s">
-        <v>852</v>
-      </c>
-      <c r="L83" t="s">
-        <v>862</v>
-      </c>
-      <c r="M83" t="s">
-        <v>853</v>
-      </c>
-      <c r="N83" t="s">
-        <v>854</v>
-      </c>
-      <c r="O83" t="s">
-        <v>863</v>
-      </c>
-      <c r="P83" t="s">
-        <v>855</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="129" spans="1:17" ht="99.75">
+      <c r="A129" t="s">
+        <v>370</v>
+      </c>
+      <c r="B129" t="s">
+        <v>405</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="N129" t="s">
+        <v>371</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q129" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" t="s">
+        <v>316</v>
+      </c>
+      <c r="B130" t="s">
+        <v>401</v>
+      </c>
+      <c r="I130" t="s">
+        <v>811</v>
+      </c>
+      <c r="J130" t="s">
+        <v>592</v>
+      </c>
+      <c r="K130" t="s">
+        <v>317</v>
+      </c>
+      <c r="L130" t="s">
+        <v>812</v>
+      </c>
+      <c r="M130" t="s">
+        <v>593</v>
+      </c>
+      <c r="N130" t="s">
+        <v>318</v>
+      </c>
+      <c r="O130" t="s">
+        <v>813</v>
+      </c>
+      <c r="P130" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="42.75">
+      <c r="A131" t="s">
+        <v>29</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D131" t="s">
+        <v>30</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1085</v>
+      </c>
+      <c r="L131" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M131" t="s">
+        <v>864</v>
+      </c>
+      <c r="N131" t="s">
+        <v>32</v>
+      </c>
+      <c r="O131" t="s">
+        <v>1087</v>
+      </c>
+      <c r="P131" t="s">
+        <v>865</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="57">
+      <c r="A132" t="s">
+        <v>66</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J132" t="s">
+        <v>866</v>
+      </c>
+      <c r="K132" t="s">
+        <v>68</v>
+      </c>
+      <c r="L132" t="s">
+        <v>1091</v>
+      </c>
+      <c r="M132" t="s">
+        <v>867</v>
+      </c>
+      <c r="N132" t="s">
+        <v>69</v>
+      </c>
+      <c r="O132" t="s">
+        <v>1092</v>
+      </c>
+      <c r="P132" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="71.25">
+      <c r="A133" t="s">
         <v>327</v>
       </c>
-      <c r="B84" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E84" t="s">
-        <v>328</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="J84" t="s">
+      <c r="B133" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J133" t="s">
         <v>869</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K133" t="s">
         <v>329</v>
       </c>
-      <c r="L84" t="s">
-        <v>1034</v>
-      </c>
-      <c r="M84" t="s">
+      <c r="L133" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M133" t="s">
         <v>870</v>
       </c>
-      <c r="N84" t="s">
+      <c r="N133" t="s">
         <v>330</v>
       </c>
-      <c r="O84" t="s">
-        <v>1041</v>
-      </c>
-      <c r="P84" t="s">
+      <c r="O133" t="s">
+        <v>1097</v>
+      </c>
+      <c r="P133" t="s">
         <v>871</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="Q133" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>66</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E85" t="s">
-        <v>67</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J85" t="s">
-        <v>866</v>
-      </c>
-      <c r="K85" t="s">
-        <v>68</v>
-      </c>
-      <c r="L85" t="s">
-        <v>1033</v>
-      </c>
-      <c r="M85" t="s">
-        <v>867</v>
-      </c>
-      <c r="N85" t="s">
-        <v>69</v>
-      </c>
-      <c r="O85" t="s">
-        <v>1037</v>
-      </c>
-      <c r="P85" t="s">
-        <v>868</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>969</v>
-      </c>
-      <c r="B86" t="s">
-        <v>964</v>
-      </c>
-      <c r="I86" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J86" t="s">
-        <v>965</v>
-      </c>
-      <c r="K86" t="s">
-        <v>966</v>
-      </c>
-      <c r="L86" t="s">
-        <v>1061</v>
-      </c>
-      <c r="M86" t="s">
-        <v>970</v>
-      </c>
-      <c r="N86" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>963</v>
-      </c>
-      <c r="B87" t="s">
-        <v>964</v>
-      </c>
-      <c r="I87" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J87" t="s">
-        <v>965</v>
-      </c>
-      <c r="K87" t="s">
-        <v>966</v>
-      </c>
-      <c r="L87" t="s">
-        <v>1060</v>
-      </c>
-      <c r="M87" t="s">
-        <v>967</v>
-      </c>
-      <c r="N87" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>276</v>
-      </c>
-      <c r="B88" t="s">
-        <v>382</v>
-      </c>
-      <c r="L88" t="s">
-        <v>786</v>
-      </c>
-      <c r="M88" t="s">
-        <v>277</v>
-      </c>
-      <c r="N88" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" t="s">
-        <v>383</v>
-      </c>
-      <c r="C89" t="s">
-        <v>626</v>
-      </c>
-      <c r="D89" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" t="s">
-        <v>23</v>
-      </c>
-      <c r="I89" t="s">
-        <v>626</v>
-      </c>
-      <c r="J89" t="s">
-        <v>22</v>
-      </c>
-      <c r="K89" t="s">
-        <v>23</v>
-      </c>
-      <c r="L89" t="s">
-        <v>627</v>
-      </c>
-      <c r="M89" t="s">
-        <v>24</v>
-      </c>
-      <c r="N89" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90" t="s">
-        <v>382</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="K90" t="s">
-        <v>108</v>
-      </c>
-      <c r="L90" t="s">
-        <v>678</v>
-      </c>
-      <c r="M90" t="s">
-        <v>109</v>
-      </c>
-      <c r="N90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>165</v>
-      </c>
-      <c r="B91" t="s">
-        <v>394</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="K91" t="s">
-        <v>166</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="N91" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>62</v>
-      </c>
-      <c r="B92" t="s">
-        <v>384</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E92" t="s">
-        <v>63</v>
-      </c>
-      <c r="K92" t="s">
-        <v>64</v>
-      </c>
-      <c r="L92" t="s">
-        <v>649</v>
-      </c>
-      <c r="M92" t="s">
-        <v>406</v>
-      </c>
-      <c r="N92" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93" t="s">
-        <v>382</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="K93" t="s">
-        <v>35</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="N93" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>288</v>
-      </c>
-      <c r="B94" t="s">
-        <v>387</v>
-      </c>
-      <c r="C94" t="s">
-        <v>791</v>
-      </c>
-      <c r="D94" t="s">
-        <v>289</v>
-      </c>
-      <c r="E94" t="s">
-        <v>290</v>
-      </c>
-      <c r="L94" t="s">
-        <v>792</v>
-      </c>
-      <c r="M94" t="s">
-        <v>573</v>
-      </c>
-      <c r="N94" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>367</v>
-      </c>
-      <c r="B95" t="s">
-        <v>384</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="E95" t="s">
-        <v>368</v>
-      </c>
-      <c r="L95" t="s">
-        <v>833</v>
-      </c>
-      <c r="M95" t="s">
-        <v>610</v>
-      </c>
-      <c r="N95" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>337</v>
-      </c>
-      <c r="B96" t="s">
-        <v>400</v>
-      </c>
-      <c r="L96" t="s">
-        <v>820</v>
-      </c>
-      <c r="M96" t="s">
-        <v>601</v>
-      </c>
-      <c r="N96" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>285</v>
-      </c>
-      <c r="B97" t="s">
-        <v>387</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="E97" t="s">
-        <v>286</v>
-      </c>
-      <c r="L97" t="s">
-        <v>790</v>
-      </c>
-      <c r="M97" t="s">
-        <v>572</v>
-      </c>
-      <c r="N97" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>946</v>
-      </c>
-      <c r="B98" t="s">
-        <v>947</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="E98" t="s">
-        <v>949</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="K98" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>313</v>
-      </c>
-      <c r="B99" t="s">
-        <v>382</v>
-      </c>
-      <c r="C99" t="s">
-        <v>809</v>
-      </c>
-      <c r="D99" t="s">
-        <v>590</v>
-      </c>
-      <c r="E99" t="s">
-        <v>314</v>
-      </c>
-      <c r="F99" t="s">
-        <v>810</v>
-      </c>
-      <c r="G99" t="s">
-        <v>591</v>
-      </c>
-      <c r="H99" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>311</v>
-      </c>
-      <c r="B100" t="s">
-        <v>382</v>
-      </c>
-      <c r="C100" t="s">
-        <v>807</v>
-      </c>
-      <c r="D100" t="s">
-        <v>588</v>
-      </c>
-      <c r="E100" t="s">
-        <v>309</v>
-      </c>
-      <c r="F100" t="s">
-        <v>808</v>
-      </c>
-      <c r="G100" t="s">
-        <v>589</v>
-      </c>
-      <c r="H100" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>308</v>
-      </c>
-      <c r="B101" t="s">
-        <v>382</v>
-      </c>
-      <c r="C101" t="s">
-        <v>805</v>
-      </c>
-      <c r="D101" t="s">
-        <v>586</v>
-      </c>
-      <c r="E101" t="s">
-        <v>309</v>
-      </c>
-      <c r="F101" t="s">
-        <v>806</v>
-      </c>
-      <c r="G101" t="s">
-        <v>587</v>
-      </c>
-      <c r="H101" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>245</v>
-      </c>
-      <c r="B102" t="s">
-        <v>382</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="H102" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>324</v>
-      </c>
-      <c r="B103" t="s">
-        <v>382</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="E103" t="s">
-        <v>325</v>
-      </c>
-      <c r="F103" t="s">
-        <v>817</v>
-      </c>
-      <c r="G103" t="s">
-        <v>598</v>
-      </c>
-      <c r="H103" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>972</v>
-      </c>
-      <c r="B104" t="s">
-        <v>973</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="E104" t="s">
-        <v>975</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="H104" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>887</v>
-      </c>
-      <c r="B105" t="s">
-        <v>888</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="D105" t="s">
-        <v>889</v>
-      </c>
-      <c r="E105" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>857</v>
-      </c>
-      <c r="B106" t="s">
-        <v>858</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D106" t="s">
-        <v>859</v>
-      </c>
-      <c r="E106" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>913</v>
-      </c>
-      <c r="B107" t="s">
-        <v>904</v>
-      </c>
-      <c r="C107" t="s">
-        <v>914</v>
-      </c>
-      <c r="D107" t="s">
-        <v>914</v>
-      </c>
-      <c r="E107" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>320</v>
-      </c>
-      <c r="B108" t="s">
-        <v>382</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="E108" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>26</v>
-      </c>
-      <c r="B109" t="s">
-        <v>384</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="D109" t="s">
-        <v>27</v>
-      </c>
-      <c r="E109" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>282</v>
-      </c>
-      <c r="B110" t="s">
-        <v>382</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="D110" t="s">
-        <v>283</v>
-      </c>
-      <c r="E110" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>279</v>
-      </c>
-      <c r="B111" t="s">
-        <v>382</v>
-      </c>
-      <c r="C111" t="s">
-        <v>787</v>
-      </c>
-      <c r="D111" t="s">
-        <v>280</v>
-      </c>
-      <c r="E111" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>254</v>
-      </c>
-      <c r="B112" t="s">
-        <v>382</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="E112" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>256</v>
-      </c>
-      <c r="B113" t="s">
-        <v>385</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="E113" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>134</v>
-      </c>
-      <c r="B114" t="s">
-        <v>382</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="E114" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>322</v>
-      </c>
-      <c r="B115" t="s">
-        <v>382</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="E115" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>260</v>
-      </c>
-      <c r="B116" t="s">
-        <v>382</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="E116" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>300</v>
-      </c>
-      <c r="B117" t="s">
-        <v>385</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="E117" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" ht="165" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>218</v>
-      </c>
-      <c r="B118" t="s">
-        <v>397</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="E118" t="s">
-        <v>219</v>
-      </c>
-      <c r="K118" t="s">
-        <v>109</v>
-      </c>
-      <c r="N118" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>47</v>
-      </c>
-      <c r="B119" t="s">
-        <v>382</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E119" t="s">
-        <v>48</v>
-      </c>
-      <c r="K119" t="s">
-        <v>49</v>
-      </c>
-      <c r="N119" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>294</v>
-      </c>
-      <c r="B120" t="s">
-        <v>382</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="K120" t="s">
-        <v>295</v>
-      </c>
-      <c r="N120" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>155</v>
-      </c>
-      <c r="B121" t="s">
-        <v>382</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>334</v>
-      </c>
-      <c r="B122" t="s">
-        <v>402</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="E122" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>332</v>
-      </c>
-      <c r="B123" t="s">
-        <v>382</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="E123" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" ht="105" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>100</v>
-      </c>
-      <c r="B124" t="s">
-        <v>385</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E124" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>258</v>
-      </c>
-      <c r="B125" t="s">
-        <v>382</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="E125" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>262</v>
-      </c>
-      <c r="B126" t="s">
-        <v>382</v>
-      </c>
-      <c r="E126" t="s">
-        <v>263</v>
-      </c>
-      <c r="K126" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>265</v>
-      </c>
-      <c r="B127" t="s">
-        <v>382</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="K127" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>292</v>
-      </c>
-      <c r="B128" t="s">
-        <v>382</v>
-      </c>
-      <c r="E128" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>336</v>
-      </c>
-      <c r="B129" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>156</v>
-      </c>
-      <c r="B130" t="s">
-        <v>382</v>
+    <row r="134" spans="1:17" ht="57">
+      <c r="A134" t="s">
+        <v>357</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D134" t="s">
+        <v>872</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J134" t="s">
+        <v>873</v>
+      </c>
+      <c r="K134" t="s">
+        <v>359</v>
+      </c>
+      <c r="L134" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M134" t="s">
+        <v>874</v>
+      </c>
+      <c r="N134" t="s">
+        <v>993</v>
+      </c>
+      <c r="O134" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P134" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:Q103" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Q130">
-      <sortCondition ref="O2:O103"/>
+      <sortCondition ref="B2:B103"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">

--- a/PTBR-COM-PORTRAIT/Lang/PTBR/Game/CharaText.xlsx
+++ b/PTBR-COM-PORTRAIT/Lang/PTBR/Game/CharaText.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8579DC5-9B1A-4080-8A0F-297EB8E5D617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EE2AA9-28E1-4566-BBAD-41498BD87D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="0" windowWidth="10320" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharaText" sheetId="1" r:id="rId1"/>
@@ -2846,11 +2846,6 @@
 ◦ 「 #self: Minha música foi tão ruim assim? 」 ◦</t>
   </si>
   <si>
-    <t>◦ 「 #self: De jeito nenhum!_x000D_ 」 ◦
-◦ 「 #self: É um discurso amargo._x000D_ 」 ◦
-◦ 「 #self: Eu fui tão ruim assim?  」 ◦</t>
-  </si>
-  <si>
     <t>◦ 「 #self: Você ouve o som de coqueteleiras._x000D_ 」 ◦
 ◦ 「 #self: Que tal uma bebida, senhor?_x000D_ 」 ◦
 ◦ 「 #self: Temos cervejas crim vintage._x000D_ 」 ◦
@@ -3557,10 +3552,6 @@
     <t>◦ 「 #self: Fia... minhas desculpas. 」 ◦</t>
   </si>
   <si>
-    <t>◦ 「 #self: Já acabou?_x000D_ 」 ◦
-◦ 「 #self: Que pena.  」 ◦</t>
-  </si>
-  <si>
     <t xml:space="preserve">◦ 「 #self: Você fica impressionado com o rosto de uma garota tão bela quanto uma Elean. 」 ◦
 ◦ 「 #self: Você conhece o conto de fadas da fera feia? 」 ◦
 ◦ 「 #self: Espero que o Mestre Cetrus esteja bem... 」 ◦
@@ -3590,13 +3581,6 @@
 ◦ 「 #self: Deixe os itens mágicos comigo. 」 ◦</t>
   </si>
   <si>
-    <t>◦ 「 #self: Bem... Quando o corvo voa, sua cauda o segue... _x000D_ 」 ◦
-◦ 「 #self: Agora, para o próximo desconhecido..._x000D_ 」 ◦
-◦ 「 #self: Se existe uma irmã gato, &amp;imagina-se que exista uma irmã cachorro também..._x000D_ 」 ◦
-◦ 「 #self: Você ouve o som de alguém virando uma página. _x000D_ 」 ◦
-◦ 「 #self: Você ouve o som de alguém escrevendo.  」 ◦</t>
-  </si>
-  <si>
     <t>◦ 「 #self: Essa é sua filosofia? 」 ◦
 ◦ 「 #self: Mostre-me sua história. 」 ◦
 ◦ 「 #self: Este mundo é perigoso. 」 ◦
@@ -3607,26 +3591,6 @@
   </si>
   <si>
     <t>◦ 「 #self: Então essa é a sua história... Um final triste. 」 ◦</t>
-  </si>
-  <si>
-    <t>◦ 「 #self: Alguém murmurou em uma misteriosa língua antiga._x000D_ 」 ◦
-◦ 「 #self: Belas melodias de lira vêm de algum lugar._x000D_ 」 ◦
-◦ 「 #self: Friaune..._x000D_ 」 ◦
-◦ 「 #self: Fui deixado sozinho nesta fortaleza de pedra._x000D_ 」 ◦
-◦ 「 #self: Vindale não se envolverá no mundo dos humanos._x000D_ 」 ◦
-◦ 「 #self: Você sente uma premonição inquietante.  」 ◦</t>
-  </si>
-  <si>
-    <t>◦ 「 #self: Alguém murmurou fracamente para si mesmo._x000D_ 」 ◦
-◦ 「 #self: Nunca serei perdoado..._x000D_ 」 ◦
-◦ 「 #self: Tudo pelo bem de Mysilia._x000D_ 」 ◦
-◦ 「 #self: Por que Vindale não responde a nós?  」 ◦</t>
-  </si>
-  <si>
-    <t>◦ 「 #self: Você ouve uma risada calorosa._x000D_ 」 ◦
-◦ 「 #self: Você sente olhos curiosos sobre você._x000D_ 」 ◦
-◦ 「 #self: Oh, temos um convidado?_x000D_ 」 ◦
-◦ 「 #self: As crianças são a pequena esperança de Mysilia.  」 ◦</t>
   </si>
   <si>
     <t>◦ 「 #self: O lugar está repleto de tensão._x000D_ 」 ◦
@@ -3689,13 +3653,6 @@
   </si>
   <si>
     <t>◦ 「 #self: Você é inútil! 」 ◦</t>
-  </si>
-  <si>
-    <t>◦ 「 #self: Ó, Elin a Viúva Branca, &amp;seu rosto desvanecendo à luz da lua cheia._x000D_ 」 ◦
-◦ 「 #self: O que você está olhando?_x000D_ 」 ◦
-◦ 「 #self: Ó Odina, Deusa da compaixão, &amp;ofereço minha canção em teu sacrifício._x000D_ 」 ◦
-◦ 「 #self: A luz que brilha no céu sem nuvens, &amp;o duque de cabelos vermelhos que dissipa a escuridão eterna!_x000D_ 」 ◦
-◦ 「 #self: Você sentiu um olhar frio atrás de você.  」 ◦</t>
   </si>
   <si>
     <t>◦ 「 #self: Ah... Que flor bonita!_x000D_ 」 ◦
@@ -3805,10 +3762,6 @@
     <t>◦ 「 #self: Minha cabeça dói... 」 ◦</t>
   </si>
   <si>
-    <t>◦ 「 #self: Hmph._x000D_ 」 ◦
-◦ 「 #self: Bem feito!  」 ◦</t>
-  </si>
-  <si>
     <t>◦ 「 #self: Você sente como se alguém estivesse te encarando intensamente._x000D_ 」 ◦
 ◦ 「 #self: Alguém sussurra um feitiço suavemente._x000D_ 」 ◦
 ◦ 「 #self: Você acha que ouviu um leve murmúrio. 」 ◦</t>
@@ -3824,17 +3777,10 @@
 ◦ 「 #self: De jeito nenhum! 」 ◦</t>
   </si>
   <si>
-    <t>◦ 「 #self: Morra!  」 ◦</t>
-  </si>
-  <si>
     <t>◦ 「 #self: Você sente que está protegido. 」 ◦</t>
   </si>
   <si>
     <t>◦ 「 #self: Me desculpe, meu mestre... 」 ◦</t>
-  </si>
-  <si>
-    <t>◦ 「 #self: O defensor tira a poeira das #his roupas. 」 ◦
-◦ 「 #self: O defensor sorri para você.  」 ◦</t>
   </si>
   <si>
     <t>◦ 「 #self: Um dia, eu encontrarei meu criador e darei um soco nele._x000D_ 」 ◦
@@ -4336,11 +4282,6 @@
 「ヴェルニースで見かけたあの男…まさか…」
 神秘的な古代の言葉で誰かが囁いた。
 「あなたはプライドが高すぎるのよ。&amp;ただでさえエレアは異端視されているのに」</t>
-  </si>
-  <si>
-    <t>"Do we really have to fight?"
-"Sorry  I don't have time for this."
-The Elean little girl has an angry look in her beautiful cold eyes.</t>
   </si>
   <si>
     <t>「なぜ戦わなければならないの？」
@@ -5014,13 +4955,6 @@
     <t>黑猫摇了摇尾巴。</t>
   </si>
   <si>
-    <t>You feel the ground tremble with the steps of a large, angry  Protector.
-Little Sister: "Look #bigdaddy, the angel."
-Little Sister: "Look #bigdaddy, the angels are dancing in the sky!"
-You hear the tread of something you do NOT want to anger. Ever.
-* Thump*</t>
-  </si>
-  <si>
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
@@ -5076,12 +5010,78 @@
 *ero-ero-ero-ero*
 "Sou o presente dos Deuses para as mulheres."</t>
   </si>
+  <si>
+    <t>◦ 「 #self: De jeito nenhum!_x000D_ 」 ◦
+◦ 「 #self: É um discurso amargo._x000D_ 」 ◦
+◦ 「 #self: Eu fui tão ruim assim?」 ◦</t>
+  </si>
+  <si>
+    <t>◦ 「 #self: Alguém murmurou em uma misteriosa língua antiga._x000D_ 」 ◦
+◦ 「 #self: Belas melodias de lira vêm de algum lugar._x000D_ 」 ◦
+◦ 「 #self: Friaune..._x000D_ 」 ◦
+◦ 「 #self: Fui deixado sozinho nesta fortaleza de pedra._x000D_ 」 ◦
+◦ 「 #self: Vindale não se envolverá no mundo dos humanos._x000D_ 」 ◦
+◦ 「 #self: Você sente uma premonição inquietante.」 ◦</t>
+  </si>
+  <si>
+    <t>◦ 「 #self: Você ouve uma risada calorosa._x000D_ 」 ◦
+◦ 「 #self: Você sente olhos curiosos sobre você._x000D_ 」 ◦
+◦ 「 #self: Oh, temos um convidado?_x000D_ 」 ◦
+◦ 「 #self: As crianças são a pequena esperança de Mysilia.」 ◦</t>
+  </si>
+  <si>
+    <t>◦ 「 #self: Hmph._x000D_ 」 ◦
+◦ 「 #self: Bem feito!」 ◦</t>
+  </si>
+  <si>
+    <t>◦ 「 #self: Morra!」 ◦</t>
+  </si>
+  <si>
+    <t>◦ 「 #self: O defensor tira a poeira das #his roupas. 」 ◦
+◦ 「 #self: O defensor sorri para você.」 ◦</t>
+  </si>
+  <si>
+    <t>◦ 「 #self: Bem... Quando o corvo voa, sua cauda o segue... _x000D_ 」 ◦
+◦ 「 #self: Agora, para o próximo desconhecido..._x000D_ 」 ◦
+◦ 「 #self: Se existe uma irmã gato, &amp;imagina-se que exista uma irmã cachorro também..._x000D_ 」 ◦
+◦ 「 #self: Você ouve o som de alguém virando uma página. _x000D_ 」 ◦
+◦ 「 #self: Você ouve o som de alguém escrevendo.」 ◦</t>
+  </si>
+  <si>
+    <t>◦ 「 #self: Já acabou?_x000D_ 」 ◦
+◦ 「 #self: Que pena.」 ◦</t>
+  </si>
+  <si>
+    <t>◦ 「 #self: Alguém murmurou fracamente para si mesmo._x000D_ 」 ◦
+◦ 「 #self: Nunca serei perdoado..._x000D_ 」 ◦
+◦ 「 #self: Tudo pelo bem de Mysilia._x000D_ 」 ◦
+◦ 「 #self: Por que Vindale não responde a nós?」 ◦</t>
+  </si>
+  <si>
+    <t>◦ 「 #self: Ó, Elin a Viúva Branca, &amp;seu rosto desvanecendo à luz da lua cheia._x000D_ 」 ◦
+◦ 「 #self: O que você está olhando?_x000D_ 」 ◦
+◦ 「 #self: Ó Odina, Deusa da compaixão, &amp;ofereço minha canção em teu sacrifício._x000D_ 」 ◦
+◦ 「 #self: A luz que brilha no céu sem nuvens, &amp;o duque de cabelos vermelhos que dissipa a escuridão eterna!_x000D_ 」 ◦
+◦ 「 #self: Você sentiu um olhar frio atrás de você.」 ◦</t>
+  </si>
+  <si>
+    <t>"Do we really have to fight?"
+"SorryI don't have time for this."
+The Elean little girl has an angry look in her beautiful cold eyes.</t>
+  </si>
+  <si>
+    <t>You feel the ground tremble with the steps of a large, angryProtector.
+Little Sister: "Look #bigdaddy, the angel."
+Little Sister: "Look #bigdaddy, the angels are dancing in the sky!"
+You hear the tread of something you do NOT want to anger. Ever.
+* Thump*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -5468,31 +5468,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="255.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="113.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="92.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="105.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="142.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="121.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="202.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="113.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="92.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="105.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="142.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="121.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="202.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="163.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="136.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="163.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="136.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="87" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="149.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="149.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="57">
+    <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>382</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>542</v>
@@ -5562,7 +5562,7 @@
         <v>216</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>543</v>
@@ -5571,7 +5571,7 @@
         <v>217</v>
       </c>
       <c r="I3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J3" t="s">
         <v>109</v>
@@ -5580,7 +5580,7 @@
         <v>109</v>
       </c>
       <c r="L3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M3" t="s">
         <v>109</v>
@@ -5589,7 +5589,7 @@
         <v>109</v>
       </c>
       <c r="O3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="P3" t="s">
         <v>109</v>
@@ -5598,7 +5598,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="114">
+    <row r="4" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>382</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>541</v>
@@ -5615,7 +5615,7 @@
         <v>214</v>
       </c>
       <c r="I4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J4" t="s">
         <v>109</v>
@@ -5624,7 +5624,7 @@
         <v>109</v>
       </c>
       <c r="L4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M4" t="s">
         <v>109</v>
@@ -5633,7 +5633,7 @@
         <v>109</v>
       </c>
       <c r="O4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="P4" t="s">
         <v>109</v>
@@ -5642,7 +5642,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="42.75">
+    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>306</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>382</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>585</v>
@@ -5659,7 +5659,7 @@
         <v>307</v>
       </c>
       <c r="I5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J5" t="s">
         <v>150</v>
@@ -5668,7 +5668,7 @@
         <v>150</v>
       </c>
       <c r="L5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M5" t="s">
         <v>150</v>
@@ -5677,7 +5677,7 @@
         <v>150</v>
       </c>
       <c r="O5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="P5" t="s">
         <v>150</v>
@@ -5686,7 +5686,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="42.75">
+    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>247</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>382</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>560</v>
@@ -5703,7 +5703,7 @@
         <v>248</v>
       </c>
       <c r="I6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J6" t="s">
         <v>150</v>
@@ -5712,7 +5712,7 @@
         <v>150</v>
       </c>
       <c r="L6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M6" t="s">
         <v>150</v>
@@ -5721,7 +5721,7 @@
         <v>150</v>
       </c>
       <c r="O6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="P6" t="s">
         <v>150</v>
@@ -5730,7 +5730,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="42.75">
+    <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>220</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>382</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>545</v>
@@ -5747,7 +5747,7 @@
         <v>221</v>
       </c>
       <c r="I7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J7" t="s">
         <v>222</v>
@@ -5756,7 +5756,7 @@
         <v>222</v>
       </c>
       <c r="L7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="M7" t="s">
         <v>222</v>
@@ -5765,7 +5765,7 @@
         <v>222</v>
       </c>
       <c r="O7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="P7" t="s">
         <v>222</v>
@@ -5774,7 +5774,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="42.75">
+    <row r="8" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>226</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>382</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>548</v>
@@ -5791,7 +5791,7 @@
         <v>227</v>
       </c>
       <c r="I8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J8" t="s">
         <v>228</v>
@@ -5800,7 +5800,7 @@
         <v>228</v>
       </c>
       <c r="L8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M8" t="s">
         <v>228</v>
@@ -5809,7 +5809,7 @@
         <v>228</v>
       </c>
       <c r="O8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="P8" t="s">
         <v>228</v>
@@ -5818,7 +5818,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="42.75">
+    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>382</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>517</v>
@@ -5835,7 +5835,7 @@
         <v>174</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="P9" t="s">
         <v>175</v>
@@ -5844,7 +5844,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="99.75">
+    <row r="10" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>305</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>382</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>583</v>
@@ -5861,7 +5861,7 @@
         <v>174</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>584</v>
@@ -5870,7 +5870,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="28.5">
+    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>382</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>480</v>
@@ -5887,7 +5887,7 @@
         <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M11" t="s">
         <v>481</v>
@@ -5896,7 +5896,7 @@
         <v>118</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>482</v>
@@ -5905,7 +5905,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="57">
+    <row r="12" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>382</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>436</v>
@@ -5922,7 +5922,7 @@
         <v>38</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>437</v>
@@ -5931,7 +5931,7 @@
         <v>39</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>438</v>
@@ -5940,7 +5940,7 @@
         <v>40</v>
       </c>
       <c r="O12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P12" t="s">
         <v>439</v>
@@ -5949,7 +5949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="99.75">
+    <row r="13" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>382</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>467</v>
@@ -5966,7 +5966,7 @@
         <v>93</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>468</v>
@@ -5975,7 +5975,7 @@
         <v>94</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>469</v>
@@ -5984,7 +5984,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="42.75">
+    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="99.75">
+    <row r="15" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>382</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>440</v>
@@ -6036,7 +6036,7 @@
         <v>43</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>441</v>
@@ -6045,7 +6045,7 @@
         <v>44</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>442</v>
@@ -6054,7 +6054,7 @@
         <v>45</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>443</v>
@@ -6063,7 +6063,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="42.75">
+    <row r="16" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>382</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D16" t="s">
         <v>111</v>
@@ -6080,7 +6080,7 @@
         <v>112</v>
       </c>
       <c r="L16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M16" t="s">
         <v>113</v>
@@ -6089,7 +6089,7 @@
         <v>114</v>
       </c>
       <c r="O16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P16" t="s">
         <v>479</v>
@@ -6098,7 +6098,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="71.25">
+    <row r="17" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>382</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>498</v>
@@ -6115,7 +6115,7 @@
         <v>145</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>499</v>
@@ -6124,7 +6124,7 @@
         <v>146</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>500</v>
@@ -6133,7 +6133,7 @@
         <v>147</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>501</v>
@@ -6142,7 +6142,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="85.5">
+    <row r="18" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>382</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>474</v>
@@ -6159,7 +6159,7 @@
         <v>103</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>475</v>
@@ -6168,7 +6168,7 @@
         <v>104</v>
       </c>
       <c r="L18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M18" t="s">
         <v>476</v>
@@ -6177,7 +6177,7 @@
         <v>105</v>
       </c>
       <c r="O18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="P18" t="s">
         <v>477</v>
@@ -6186,7 +6186,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="99.75">
+    <row r="19" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>382</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>495</v>
@@ -6203,7 +6203,7 @@
         <v>141</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>496</v>
@@ -6212,7 +6212,7 @@
         <v>142</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>497</v>
@@ -6221,7 +6221,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="57">
+    <row r="20" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>382</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>463</v>
@@ -6238,7 +6238,7 @@
         <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J20" t="s">
         <v>464</v>
@@ -6247,7 +6247,7 @@
         <v>89</v>
       </c>
       <c r="L20" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M20" t="s">
         <v>465</v>
@@ -6256,7 +6256,7 @@
         <v>90</v>
       </c>
       <c r="O20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P20" t="s">
         <v>466</v>
@@ -6265,7 +6265,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="99.75">
+    <row r="21" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>382</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>458</v>
@@ -6282,7 +6282,7 @@
         <v>81</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>459</v>
@@ -6291,7 +6291,7 @@
         <v>82</v>
       </c>
       <c r="O21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="P21" t="s">
         <v>460</v>
@@ -6300,7 +6300,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="42.75">
+    <row r="22" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>382</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>470</v>
@@ -6317,7 +6317,7 @@
         <v>97</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>471</v>
@@ -6326,7 +6326,7 @@
         <v>98</v>
       </c>
       <c r="O22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="P22" t="s">
         <v>472</v>
@@ -6335,7 +6335,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="57">
+    <row r="23" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>382</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>528</v>
@@ -6352,7 +6352,7 @@
         <v>195</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>529</v>
@@ -6361,7 +6361,7 @@
         <v>196</v>
       </c>
       <c r="O23" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P23" t="s">
         <v>530</v>
@@ -6370,7 +6370,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="42.75">
+    <row r="24" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>209</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>382</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>538</v>
@@ -6387,7 +6387,7 @@
         <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M24" t="s">
         <v>539</v>
@@ -6396,7 +6396,7 @@
         <v>211</v>
       </c>
       <c r="O24" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="P24" t="s">
         <v>540</v>
@@ -6405,7 +6405,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="57">
+    <row r="25" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>162</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>382</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>509</v>
@@ -6422,7 +6422,7 @@
         <v>163</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>510</v>
@@ -6431,7 +6431,7 @@
         <v>414</v>
       </c>
       <c r="L25" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M25" t="s">
         <v>511</v>
@@ -6440,7 +6440,7 @@
         <v>164</v>
       </c>
       <c r="O25" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="P25" t="s">
         <v>512</v>
@@ -6449,7 +6449,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="42.75">
+    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>382</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D26" t="s">
         <v>185</v>
@@ -6466,7 +6466,7 @@
         <v>186</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>522</v>
@@ -6475,7 +6475,7 @@
         <v>187</v>
       </c>
       <c r="L26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M26" t="s">
         <v>523</v>
@@ -6484,7 +6484,7 @@
         <v>188</v>
       </c>
       <c r="O26" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="P26" t="s">
         <v>524</v>
@@ -6493,7 +6493,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="57">
+    <row r="27" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>296</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>382</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>575</v>
@@ -6510,7 +6510,7 @@
         <v>424</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>576</v>
@@ -6519,7 +6519,7 @@
         <v>297</v>
       </c>
       <c r="L27" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="M27" t="s">
         <v>577</v>
@@ -6528,7 +6528,7 @@
         <v>298</v>
       </c>
       <c r="O27" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="P27" t="s">
         <v>578</v>
@@ -6537,7 +6537,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>267</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>270</v>
       </c>
       <c r="O28" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="P28" t="s">
         <v>569</v>
@@ -6563,7 +6563,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>276</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>382</v>
       </c>
       <c r="L29" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="M29" t="s">
         <v>277</v>
@@ -6580,7 +6580,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="57">
+    <row r="30" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>382</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>478</v>
@@ -6597,7 +6597,7 @@
         <v>108</v>
       </c>
       <c r="L30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M30" t="s">
         <v>109</v>
@@ -6606,7 +6606,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="71.25">
+    <row r="31" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>35</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>630</v>
+        <v>1094</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>435</v>
@@ -6641,7 +6641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>382</v>
       </c>
       <c r="C32" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="D32" t="s">
         <v>590</v>
@@ -6658,7 +6658,7 @@
         <v>314</v>
       </c>
       <c r="F32" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="G32" t="s">
         <v>591</v>
@@ -6667,7 +6667,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>311</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>382</v>
       </c>
       <c r="C33" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="D33" t="s">
         <v>588</v>
@@ -6684,7 +6684,7 @@
         <v>309</v>
       </c>
       <c r="F33" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="G33" t="s">
         <v>589</v>
@@ -6693,7 +6693,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>308</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>382</v>
       </c>
       <c r="C34" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="D34" t="s">
         <v>586</v>
@@ -6710,7 +6710,7 @@
         <v>309</v>
       </c>
       <c r="F34" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="G34" t="s">
         <v>587</v>
@@ -6719,7 +6719,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="42.75">
+    <row r="35" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>245</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>382</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>559</v>
@@ -6736,7 +6736,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="57">
+    <row r="36" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>324</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>382</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>597</v>
@@ -6753,7 +6753,7 @@
         <v>325</v>
       </c>
       <c r="F36" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="G36" t="s">
         <v>598</v>
@@ -6762,7 +6762,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="42.75">
+    <row r="37" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>320</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>382</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>595</v>
@@ -6779,7 +6779,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="28.5">
+    <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>282</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>382</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D38" t="s">
         <v>283</v>
@@ -6796,7 +6796,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>279</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>382</v>
       </c>
       <c r="C39" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D39" t="s">
         <v>280</v>
@@ -6813,7 +6813,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="85.5">
+    <row r="40" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>254</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>382</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>780</v>
+        <v>1095</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>565</v>
@@ -6830,7 +6830,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="57">
+    <row r="41" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>382</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>493</v>
@@ -6847,7 +6847,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="42.75">
+    <row r="42" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>322</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>382</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>596</v>
@@ -6864,7 +6864,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="71.25">
+    <row r="43" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>382</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>568</v>
@@ -6881,7 +6881,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="71.25">
+    <row r="44" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>382</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>444</v>
@@ -6907,7 +6907,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="71.25">
+    <row r="45" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>294</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>382</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>574</v>
@@ -6930,7 +6930,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="71.25">
+    <row r="46" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>382</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>504</v>
@@ -6947,7 +6947,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="85.5">
+    <row r="47" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>332</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>382</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>599</v>
@@ -6964,7 +6964,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="57">
+    <row r="48" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>258</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>382</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>782</v>
+        <v>1096</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>567</v>
@@ -6981,7 +6981,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>262</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="57">
+    <row r="50" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>265</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>292</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>156</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="42.75">
+    <row r="53" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>334</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>402</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>600</v>
@@ -7045,7 +7045,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="57">
+    <row r="54" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>229</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>398</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>549</v>
@@ -7062,7 +7062,7 @@
         <v>230</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>550</v>
@@ -7071,7 +7071,7 @@
         <v>231</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>551</v>
@@ -7080,7 +7080,7 @@
         <v>232</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>552</v>
@@ -7089,7 +7089,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>336</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="71.25">
+    <row r="56" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>343</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>404</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>602</v>
@@ -7114,7 +7114,7 @@
         <v>344</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>603</v>
@@ -7123,7 +7123,7 @@
         <v>345</v>
       </c>
       <c r="L56" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="M56" t="s">
         <v>604</v>
@@ -7132,7 +7132,7 @@
         <v>346</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>824</v>
+        <v>1097</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>605</v>
@@ -7141,7 +7141,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="99.75">
+    <row r="57" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>388</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>454</v>
@@ -7158,7 +7158,7 @@
         <v>75</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>455</v>
@@ -7167,7 +7167,7 @@
         <v>76</v>
       </c>
       <c r="O57" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="P57" t="s">
         <v>456</v>
@@ -7176,7 +7176,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="99.75">
+    <row r="58" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>84</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>388</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>458</v>
@@ -7193,7 +7193,7 @@
         <v>81</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>461</v>
@@ -7202,7 +7202,7 @@
         <v>85</v>
       </c>
       <c r="O58" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P58" t="s">
         <v>462</v>
@@ -7211,7 +7211,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="42.75">
+    <row r="59" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>177</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>388</v>
       </c>
       <c r="C59" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D59" t="s">
         <v>409</v>
@@ -7228,7 +7228,7 @@
         <v>178</v>
       </c>
       <c r="L59" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M59" t="s">
         <v>518</v>
@@ -7237,7 +7237,7 @@
         <v>179</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="P59" t="s">
         <v>180</v>
@@ -7246,7 +7246,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="42.75">
+    <row r="60" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>389</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>457</v>
@@ -7263,7 +7263,7 @@
         <v>79</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>457</v>
@@ -7272,7 +7272,7 @@
         <v>79</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>457</v>
@@ -7281,7 +7281,7 @@
         <v>79</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>457</v>
@@ -7290,7 +7290,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="57">
+    <row r="61" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>387</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>410</v>
@@ -7307,7 +7307,7 @@
         <v>72</v>
       </c>
       <c r="L61" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M61" t="s">
         <v>73</v>
@@ -7316,7 +7316,7 @@
         <v>73</v>
       </c>
       <c r="O61" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="P61" t="s">
         <v>73</v>
@@ -7325,7 +7325,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>288</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>387</v>
       </c>
       <c r="C62" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D62" t="s">
         <v>289</v>
@@ -7342,7 +7342,7 @@
         <v>290</v>
       </c>
       <c r="L62" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="M62" t="s">
         <v>573</v>
@@ -7351,7 +7351,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="42.75">
+    <row r="63" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>285</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>387</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>571</v>
@@ -7368,7 +7368,7 @@
         <v>286</v>
       </c>
       <c r="L63" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="M63" t="s">
         <v>572</v>
@@ -7377,7 +7377,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="28.5">
+    <row r="64" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>136</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>383</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>494</v>
@@ -7394,7 +7394,7 @@
         <v>137</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>138</v>
@@ -7403,7 +7403,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="71.25">
+    <row r="66" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>372</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>384</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>615</v>
@@ -7455,7 +7455,7 @@
         <v>373</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>616</v>
@@ -7464,7 +7464,7 @@
         <v>374</v>
       </c>
       <c r="L66" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="M66" t="s">
         <v>617</v>
@@ -7473,7 +7473,7 @@
         <v>375</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>618</v>
@@ -7482,7 +7482,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="57">
+    <row r="67" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>348</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>384</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="D67" t="s">
         <v>349</v>
@@ -7499,7 +7499,7 @@
         <v>350</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>606</v>
@@ -7508,7 +7508,7 @@
         <v>351</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>583</v>
@@ -7517,7 +7517,7 @@
         <v>174</v>
       </c>
       <c r="O67" t="s">
-        <v>828</v>
+        <v>1098</v>
       </c>
       <c r="P67" t="s">
         <v>607</v>
@@ -7526,7 +7526,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="28.5">
+    <row r="68" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>361</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>384</v>
       </c>
       <c r="C68" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="D68" t="s">
         <v>362</v>
@@ -7543,7 +7543,7 @@
         <v>363</v>
       </c>
       <c r="L68" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="M68" t="s">
         <v>608</v>
@@ -7552,7 +7552,7 @@
         <v>364</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>831</v>
+        <v>1099</v>
       </c>
       <c r="P68" t="s">
         <v>365</v>
@@ -7561,7 +7561,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="99.75">
+    <row r="69" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>207</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>384</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>535</v>
@@ -7578,7 +7578,7 @@
         <v>418</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>536</v>
@@ -7587,7 +7587,7 @@
         <v>208</v>
       </c>
       <c r="L69" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="M69" t="s">
         <v>419</v>
@@ -7596,7 +7596,7 @@
         <v>420</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>537</v>
@@ -7605,7 +7605,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="28.5">
+    <row r="70" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>384</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>453</v>
@@ -7625,7 +7625,7 @@
         <v>64</v>
       </c>
       <c r="L70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M70" t="s">
         <v>406</v>
@@ -7634,7 +7634,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="42.75">
+    <row r="71" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>367</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>384</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>609</v>
@@ -7651,7 +7651,7 @@
         <v>368</v>
       </c>
       <c r="L71" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="M71" t="s">
         <v>610</v>
@@ -7660,7 +7660,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="57">
+    <row r="72" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>384</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="D72" t="s">
         <v>27</v>
@@ -7677,7 +7677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="128.25">
+    <row r="73" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>127</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>391</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>488</v>
@@ -7694,7 +7694,7 @@
         <v>128</v>
       </c>
       <c r="I73" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J73" t="s">
         <v>484</v>
@@ -7703,7 +7703,7 @@
         <v>122</v>
       </c>
       <c r="L73" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M73" t="s">
         <v>485</v>
@@ -7712,7 +7712,7 @@
         <v>123</v>
       </c>
       <c r="O73" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="P73" t="s">
         <v>486</v>
@@ -7721,7 +7721,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="142.5">
+    <row r="74" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>125</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>391</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>487</v>
@@ -7738,7 +7738,7 @@
         <v>126</v>
       </c>
       <c r="I74" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J74" t="s">
         <v>484</v>
@@ -7747,7 +7747,7 @@
         <v>122</v>
       </c>
       <c r="L74" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M74" t="s">
         <v>485</v>
@@ -7756,7 +7756,7 @@
         <v>123</v>
       </c>
       <c r="O74" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="P74" t="s">
         <v>486</v>
@@ -7765,7 +7765,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="71.25">
+    <row r="75" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>391</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>489</v>
@@ -7782,7 +7782,7 @@
         <v>130</v>
       </c>
       <c r="I75" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J75" t="s">
         <v>490</v>
@@ -7791,7 +7791,7 @@
         <v>131</v>
       </c>
       <c r="L75" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M75" t="s">
         <v>491</v>
@@ -7800,7 +7800,7 @@
         <v>132</v>
       </c>
       <c r="O75" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="P75" t="s">
         <v>492</v>
@@ -7809,7 +7809,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="156.75">
+    <row r="76" spans="1:17" ht="165" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>218</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>397</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>544</v>
@@ -7835,7 +7835,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="42.75">
+    <row r="77" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>272</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>400</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>570</v>
@@ -7858,7 +7858,7 @@
         <v>274</v>
       </c>
       <c r="O77" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="P77" t="s">
         <v>569</v>
@@ -7867,7 +7867,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>337</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>400</v>
       </c>
       <c r="L78" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="M78" t="s">
         <v>601</v>
@@ -7884,7 +7884,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="99.75">
+    <row r="79" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>249</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>399</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>776</v>
+        <v>1100</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>561</v>
@@ -7901,7 +7901,7 @@
         <v>250</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>562</v>
@@ -7910,7 +7910,7 @@
         <v>251</v>
       </c>
       <c r="L79" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="M79" t="s">
         <v>563</v>
@@ -7919,7 +7919,7 @@
         <v>252</v>
       </c>
       <c r="O79" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="P79" t="s">
         <v>564</v>
@@ -7928,7 +7928,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="71.25">
+    <row r="80" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>57</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>386</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>449</v>
@@ -7945,7 +7945,7 @@
         <v>58</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>450</v>
@@ -7954,7 +7954,7 @@
         <v>59</v>
       </c>
       <c r="L80" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M80" t="s">
         <v>451</v>
@@ -7963,7 +7963,7 @@
         <v>60</v>
       </c>
       <c r="O80" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P80" t="s">
         <v>452</v>
@@ -7972,7 +7972,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="71.25">
+    <row r="81" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>52</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>385</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>445</v>
@@ -7989,7 +7989,7 @@
         <v>53</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>446</v>
@@ -7998,7 +7998,7 @@
         <v>54</v>
       </c>
       <c r="L81" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M81" t="s">
         <v>447</v>
@@ -8007,7 +8007,7 @@
         <v>55</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>448</v>
@@ -8016,7 +8016,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="57">
+    <row r="82" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>223</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>385</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>546</v>
@@ -8033,7 +8033,7 @@
         <v>224</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>547</v>
@@ -8042,7 +8042,7 @@
         <v>225</v>
       </c>
       <c r="I82" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J82" t="s">
         <v>150</v>
@@ -8051,7 +8051,7 @@
         <v>150</v>
       </c>
       <c r="L82" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M82" t="s">
         <v>150</v>
@@ -8060,7 +8060,7 @@
         <v>150</v>
       </c>
       <c r="O82" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="P82" t="s">
         <v>150</v>
@@ -8069,7 +8069,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="85.5">
+    <row r="83" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>239</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>385</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>557</v>
@@ -8086,7 +8086,7 @@
         <v>240</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>558</v>
@@ -8095,7 +8095,7 @@
         <v>241</v>
       </c>
       <c r="L83" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="M83" t="s">
         <v>407</v>
@@ -8104,7 +8104,7 @@
         <v>242</v>
       </c>
       <c r="O83" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="P83" t="s">
         <v>243</v>
@@ -8113,7 +8113,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="99.75">
+    <row r="84" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>169</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>385</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>515</v>
@@ -8130,7 +8130,7 @@
         <v>170</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>516</v>
@@ -8139,7 +8139,7 @@
         <v>171</v>
       </c>
       <c r="O84" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="P84" t="s">
         <v>408</v>
@@ -8148,7 +8148,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="71.25">
+    <row r="85" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>234</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>385</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>553</v>
@@ -8165,7 +8165,7 @@
         <v>235</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>554</v>
@@ -8174,7 +8174,7 @@
         <v>236</v>
       </c>
       <c r="L85" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M85" t="s">
         <v>555</v>
@@ -8183,7 +8183,7 @@
         <v>237</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>769</v>
+        <v>1101</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>556</v>
@@ -8192,7 +8192,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="71.25">
+    <row r="86" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>157</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>385</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>505</v>
@@ -8209,7 +8209,7 @@
         <v>158</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>506</v>
@@ -8218,7 +8218,7 @@
         <v>159</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>507</v>
@@ -8227,7 +8227,7 @@
         <v>160</v>
       </c>
       <c r="O86" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="P86" t="s">
         <v>508</v>
@@ -8236,7 +8236,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="285">
+    <row r="87" spans="1:17" ht="300" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>182</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>385</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>519</v>
@@ -8253,7 +8253,7 @@
         <v>416</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>520</v>
@@ -8262,7 +8262,7 @@
         <v>417</v>
       </c>
       <c r="L87" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M87" t="s">
         <v>521</v>
@@ -8271,7 +8271,7 @@
         <v>183</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="P87" t="s">
         <v>180</v>
@@ -8280,7 +8280,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="28.5">
+    <row r="88" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>385</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>525</v>
@@ -8297,7 +8297,7 @@
         <v>191</v>
       </c>
       <c r="I88" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J88" t="s">
         <v>526</v>
@@ -8306,7 +8306,7 @@
         <v>192</v>
       </c>
       <c r="L88" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M88" t="s">
         <v>527</v>
@@ -8315,7 +8315,7 @@
         <v>193</v>
       </c>
       <c r="O88" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P88" t="s">
         <v>527</v>
@@ -8324,7 +8324,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="57">
+    <row r="89" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>256</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>385</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>781</v>
+        <v>1102</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>566</v>
@@ -8341,7 +8341,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="71.25">
+    <row r="90" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>300</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>385</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>798</v>
+        <v>1103</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>579</v>
@@ -8358,7 +8358,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="99.75">
+    <row r="91" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>385</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>473</v>
@@ -8375,7 +8375,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="85.5">
+    <row r="92" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>165</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>394</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>513</v>
@@ -8392,7 +8392,7 @@
         <v>166</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>514</v>
@@ -8404,7 +8404,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="99.75">
+    <row r="93" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>302</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>393</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>580</v>
@@ -8421,7 +8421,7 @@
         <v>425</v>
       </c>
       <c r="L93" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="M93" t="s">
         <v>581</v>
@@ -8430,7 +8430,7 @@
         <v>303</v>
       </c>
       <c r="O93" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="P93" t="s">
         <v>582</v>
@@ -8439,7 +8439,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="85.5">
+    <row r="94" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>151</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>393</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D94" t="s">
         <v>152</v>
@@ -8456,7 +8456,7 @@
         <v>153</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>503</v>
@@ -8465,7 +8465,7 @@
         <v>154</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>499</v>
@@ -8474,7 +8474,7 @@
         <v>146</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>500</v>
@@ -8483,7 +8483,7 @@
         <v>147</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>501</v>
@@ -8492,847 +8492,847 @@
         <v>148</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="71.25">
+    <row r="95" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>837</v>
+      </c>
+      <c r="B95" t="s">
+        <v>838</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D95" t="s">
+        <v>839</v>
+      </c>
+      <c r="E95" t="s">
+        <v>840</v>
+      </c>
+      <c r="I95" t="s">
+        <v>851</v>
+      </c>
+      <c r="J95" t="s">
+        <v>841</v>
+      </c>
+      <c r="K95" t="s">
+        <v>842</v>
+      </c>
+      <c r="L95" t="s">
+        <v>852</v>
+      </c>
+      <c r="M95" t="s">
+        <v>843</v>
+      </c>
+      <c r="N95" t="s">
+        <v>844</v>
+      </c>
+      <c r="O95" t="s">
+        <v>853</v>
+      </c>
+      <c r="P95" t="s">
+        <v>845</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>847</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>848</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="C96" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="E95" t="s">
+      <c r="D96" t="s">
+        <v>849</v>
+      </c>
+      <c r="E96" t="s">
         <v>850</v>
       </c>
-      <c r="I95" t="s">
-        <v>861</v>
-      </c>
-      <c r="J95" t="s">
-        <v>851</v>
-      </c>
-      <c r="K95" t="s">
-        <v>852</v>
-      </c>
-      <c r="L95" t="s">
-        <v>862</v>
-      </c>
-      <c r="M95" t="s">
-        <v>853</v>
-      </c>
-      <c r="N95" t="s">
-        <v>854</v>
-      </c>
-      <c r="O95" t="s">
-        <v>863</v>
-      </c>
-      <c r="P95" t="s">
-        <v>855</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" ht="42.75">
-      <c r="A96" t="s">
-        <v>857</v>
-      </c>
-      <c r="B96" t="s">
-        <v>858</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D96" t="s">
-        <v>859</v>
-      </c>
-      <c r="E96" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" ht="71.25">
+    </row>
+    <row r="97" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>339</v>
       </c>
       <c r="B97" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="D97" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="E97" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="K97" t="s">
         <v>340</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="N97" t="s">
         <v>341</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="Q97" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="299.25">
+    <row r="98" spans="1:17" ht="315" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>353</v>
       </c>
       <c r="B98" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="D98" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="E98" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="K98" t="s">
         <v>354</v>
       </c>
       <c r="L98" t="s">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="M98" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="N98" t="s">
         <v>355</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="Q98" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="28.5">
+    <row r="99" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>877</v>
+      </c>
+      <c r="B99" t="s">
+        <v>878</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="D99" t="s">
+        <v>879</v>
+      </c>
+      <c r="E99" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>883</v>
+      </c>
+      <c r="B100" t="s">
+        <v>884</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="E100" t="s">
+        <v>886</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J100" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="B99" t="s">
+      <c r="K100" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="L100" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="N100" t="s">
+        <v>890</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="P100" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q100" t="s">
         <v>892</v>
       </c>
-      <c r="D99" t="s">
-        <v>889</v>
-      </c>
-      <c r="E99" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" ht="171">
-      <c r="A100" t="s">
+    </row>
+    <row r="101" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>893</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>894</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="C101" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E101" t="s">
         <v>896</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="I101" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="K101" t="s">
+        <v>898</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="N101" t="s">
+        <v>900</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>905</v>
+      </c>
+      <c r="B102" t="s">
+        <v>894</v>
+      </c>
+      <c r="C102" t="s">
+        <v>904</v>
+      </c>
+      <c r="D102" t="s">
+        <v>904</v>
+      </c>
+      <c r="E102" t="s">
+        <v>904</v>
+      </c>
+      <c r="I102" t="s">
         <v>1046</v>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="N100" t="s">
-        <v>900</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="P100" t="s">
-        <v>901</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" ht="42.75">
-      <c r="A101" t="s">
+      <c r="J102" t="s">
+        <v>906</v>
+      </c>
+      <c r="K102" t="s">
+        <v>907</v>
+      </c>
+      <c r="L102" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M102" t="s">
+        <v>908</v>
+      </c>
+      <c r="N102" t="s">
+        <v>909</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>912</v>
+      </c>
+      <c r="B103" t="s">
+        <v>894</v>
+      </c>
+      <c r="C103" t="s">
+        <v>904</v>
+      </c>
+      <c r="D103" t="s">
+        <v>904</v>
+      </c>
+      <c r="E103" t="s">
+        <v>904</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J103" t="s">
+        <v>913</v>
+      </c>
+      <c r="K103" t="s">
+        <v>914</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M103" t="s">
+        <v>915</v>
+      </c>
+      <c r="N103" t="s">
+        <v>916</v>
+      </c>
+      <c r="O103" t="s">
+        <v>917</v>
+      </c>
+      <c r="P103" t="s">
+        <v>917</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>903</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B104" t="s">
+        <v>894</v>
+      </c>
+      <c r="C104" t="s">
         <v>904</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="E101" t="s">
-        <v>906</v>
-      </c>
-      <c r="I101" s="2" t="s">
+      <c r="D104" t="s">
+        <v>904</v>
+      </c>
+      <c r="E104" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>919</v>
+      </c>
+      <c r="B105" t="s">
+        <v>920</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="E105" t="s">
+        <v>922</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K105" t="s">
+        <v>923</v>
+      </c>
+      <c r="L105" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M105" t="s">
+        <v>924</v>
+      </c>
+      <c r="N105" t="s">
+        <v>925</v>
+      </c>
+      <c r="O105" t="s">
+        <v>1069</v>
+      </c>
+      <c r="P105" t="s">
+        <v>926</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>946</v>
+      </c>
+      <c r="B106" t="s">
+        <v>936</v>
+      </c>
+      <c r="I106" t="s">
+        <v>947</v>
+      </c>
+      <c r="J106" t="s">
+        <v>947</v>
+      </c>
+      <c r="K106" t="s">
+        <v>948</v>
+      </c>
+      <c r="L106" t="s">
         <v>1055</v>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="K101" t="s">
-        <v>908</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="N101" t="s">
-        <v>910</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="P101" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" ht="28.5">
-      <c r="A102" t="s">
-        <v>915</v>
-      </c>
-      <c r="B102" t="s">
-        <v>904</v>
-      </c>
-      <c r="C102" t="s">
-        <v>914</v>
-      </c>
-      <c r="D102" t="s">
-        <v>914</v>
-      </c>
-      <c r="E102" t="s">
-        <v>914</v>
-      </c>
-      <c r="I102" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J102" t="s">
-        <v>916</v>
-      </c>
-      <c r="K102" t="s">
-        <v>917</v>
-      </c>
-      <c r="L102" t="s">
-        <v>1062</v>
-      </c>
-      <c r="M102" t="s">
-        <v>918</v>
-      </c>
-      <c r="N102" t="s">
-        <v>919</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="P102" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17">
-      <c r="A103" t="s">
-        <v>922</v>
-      </c>
-      <c r="B103" t="s">
-        <v>904</v>
-      </c>
-      <c r="C103" t="s">
-        <v>914</v>
-      </c>
-      <c r="D103" t="s">
-        <v>914</v>
-      </c>
-      <c r="E103" t="s">
-        <v>914</v>
-      </c>
-      <c r="I103" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J103" t="s">
-        <v>923</v>
-      </c>
-      <c r="K103" t="s">
-        <v>924</v>
-      </c>
-      <c r="L103" t="s">
-        <v>1067</v>
-      </c>
-      <c r="M103" t="s">
-        <v>925</v>
-      </c>
-      <c r="N103" t="s">
-        <v>926</v>
-      </c>
-      <c r="O103" t="s">
-        <v>927</v>
-      </c>
-      <c r="P103" t="s">
-        <v>927</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17">
-      <c r="A104" t="s">
-        <v>913</v>
-      </c>
-      <c r="B104" t="s">
-        <v>904</v>
-      </c>
-      <c r="C104" t="s">
-        <v>914</v>
-      </c>
-      <c r="D104" t="s">
-        <v>914</v>
-      </c>
-      <c r="E104" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" ht="85.5">
-      <c r="A105" t="s">
-        <v>929</v>
-      </c>
-      <c r="B105" t="s">
-        <v>930</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="E105" t="s">
-        <v>932</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="K105" t="s">
-        <v>934</v>
-      </c>
-      <c r="L105" t="s">
-        <v>1063</v>
-      </c>
-      <c r="M105" t="s">
-        <v>935</v>
-      </c>
-      <c r="N105" t="s">
-        <v>936</v>
-      </c>
-      <c r="O105" t="s">
-        <v>1080</v>
-      </c>
-      <c r="P105" t="s">
-        <v>937</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17">
-      <c r="A106" t="s">
-        <v>957</v>
-      </c>
-      <c r="B106" t="s">
-        <v>947</v>
-      </c>
-      <c r="I106" t="s">
-        <v>958</v>
-      </c>
-      <c r="J106" t="s">
-        <v>958</v>
-      </c>
-      <c r="K106" t="s">
-        <v>959</v>
-      </c>
-      <c r="L106" t="s">
-        <v>1066</v>
-      </c>
       <c r="M106" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="N106" t="s">
         <v>274</v>
       </c>
       <c r="O106" t="s">
+        <v>950</v>
+      </c>
+      <c r="P106" t="s">
+        <v>950</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>939</v>
+      </c>
+      <c r="B107" t="s">
+        <v>936</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="E107" t="s">
+        <v>938</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="J107" t="s">
+        <v>940</v>
+      </c>
+      <c r="K107" t="s">
+        <v>941</v>
+      </c>
+      <c r="L107" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M107" t="s">
+        <v>942</v>
+      </c>
+      <c r="N107" t="s">
+        <v>943</v>
+      </c>
+      <c r="O107" t="s">
+        <v>944</v>
+      </c>
+      <c r="P107" t="s">
+        <v>944</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>935</v>
+      </c>
+      <c r="B108" t="s">
+        <v>936</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="E108" t="s">
+        <v>938</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="K108" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>958</v>
+      </c>
+      <c r="B109" t="s">
+        <v>953</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J109" t="s">
+        <v>954</v>
+      </c>
+      <c r="K109" t="s">
+        <v>955</v>
+      </c>
+      <c r="L109" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M109" t="s">
+        <v>959</v>
+      </c>
+      <c r="N109" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>952</v>
+      </c>
+      <c r="B110" t="s">
+        <v>953</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J110" t="s">
+        <v>954</v>
+      </c>
+      <c r="K110" t="s">
+        <v>955</v>
+      </c>
+      <c r="L110" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M110" t="s">
+        <v>956</v>
+      </c>
+      <c r="N110" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>961</v>
       </c>
-      <c r="P106" t="s">
-        <v>961</v>
-      </c>
-      <c r="Q106" t="s">
+      <c r="B111" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" ht="28.5">
-      <c r="A107" t="s">
-        <v>950</v>
-      </c>
-      <c r="B107" t="s">
-        <v>947</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="E107" t="s">
-        <v>949</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="J107" t="s">
-        <v>951</v>
-      </c>
-      <c r="K107" t="s">
-        <v>952</v>
-      </c>
-      <c r="L107" t="s">
+      <c r="C111" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="E111" t="s">
+        <v>964</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="H111" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>965</v>
+      </c>
+      <c r="B112" t="s">
+        <v>966</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="E112" t="s">
+        <v>968</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J112" t="s">
+        <v>969</v>
+      </c>
+      <c r="K112" t="s">
+        <v>970</v>
+      </c>
+      <c r="L112" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M112" t="s">
+        <v>971</v>
+      </c>
+      <c r="N112" t="s">
+        <v>972</v>
+      </c>
+      <c r="O112" t="s">
+        <v>1069</v>
+      </c>
+      <c r="P112" t="s">
+        <v>926</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>973</v>
+      </c>
+      <c r="B113" t="s">
+        <v>974</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="E113" t="s">
+        <v>976</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J113" t="s">
+        <v>977</v>
+      </c>
+      <c r="K113" t="s">
+        <v>978</v>
+      </c>
+      <c r="L113" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="N113" t="s">
+        <v>979</v>
+      </c>
+      <c r="O113" t="s">
         <v>1068</v>
       </c>
-      <c r="M107" t="s">
-        <v>953</v>
-      </c>
-      <c r="N107" t="s">
-        <v>954</v>
-      </c>
-      <c r="O107" t="s">
-        <v>955</v>
-      </c>
-      <c r="P107" t="s">
-        <v>955</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" ht="28.5">
-      <c r="A108" t="s">
-        <v>946</v>
-      </c>
-      <c r="B108" t="s">
-        <v>947</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="E108" t="s">
-        <v>949</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="K108" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17">
-      <c r="A109" t="s">
-        <v>969</v>
-      </c>
-      <c r="B109" t="s">
-        <v>964</v>
-      </c>
-      <c r="I109" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J109" t="s">
-        <v>965</v>
-      </c>
-      <c r="K109" t="s">
-        <v>966</v>
-      </c>
-      <c r="L109" t="s">
-        <v>1061</v>
-      </c>
-      <c r="M109" t="s">
-        <v>970</v>
-      </c>
-      <c r="N109" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17">
-      <c r="A110" t="s">
-        <v>963</v>
-      </c>
-      <c r="B110" t="s">
-        <v>964</v>
-      </c>
-      <c r="I110" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J110" t="s">
-        <v>965</v>
-      </c>
-      <c r="K110" t="s">
-        <v>966</v>
-      </c>
-      <c r="L110" t="s">
+      <c r="P113" t="s">
+        <v>980</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>991</v>
+      </c>
+      <c r="B114" t="s">
+        <v>984</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="K114" t="s">
+        <v>993</v>
+      </c>
+      <c r="L114" t="s">
         <v>1060</v>
       </c>
-      <c r="M110" t="s">
-        <v>967</v>
-      </c>
-      <c r="N110" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="28.5">
-      <c r="A111" t="s">
-        <v>972</v>
-      </c>
-      <c r="B111" t="s">
-        <v>973</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="E111" t="s">
-        <v>975</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="H111" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="71.25">
-      <c r="A112" t="s">
-        <v>976</v>
-      </c>
-      <c r="B112" t="s">
-        <v>977</v>
-      </c>
-      <c r="C112" s="2" t="s">
+      <c r="M114" t="s">
+        <v>994</v>
+      </c>
+      <c r="N114" t="s">
+        <v>995</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>983</v>
+      </c>
+      <c r="B115" t="s">
+        <v>984</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="K115" t="s">
+        <v>986</v>
+      </c>
+      <c r="L115" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M115" t="s">
+        <v>987</v>
+      </c>
+      <c r="N115" t="s">
+        <v>988</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>928</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="E112" t="s">
-        <v>979</v>
-      </c>
-      <c r="I112" t="s">
-        <v>1058</v>
-      </c>
-      <c r="J112" t="s">
-        <v>980</v>
-      </c>
-      <c r="K112" t="s">
-        <v>981</v>
-      </c>
-      <c r="L112" t="s">
-        <v>1069</v>
-      </c>
-      <c r="M112" t="s">
-        <v>982</v>
-      </c>
-      <c r="N112" t="s">
-        <v>983</v>
-      </c>
-      <c r="O112" t="s">
-        <v>1080</v>
-      </c>
-      <c r="P112" t="s">
-        <v>937</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" ht="28.5">
-      <c r="A113" t="s">
-        <v>984</v>
-      </c>
-      <c r="B113" t="s">
-        <v>985</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="E113" t="s">
-        <v>987</v>
-      </c>
-      <c r="I113" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J113" t="s">
-        <v>988</v>
-      </c>
-      <c r="K113" t="s">
-        <v>989</v>
-      </c>
-      <c r="L113" t="s">
-        <v>1064</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N113" t="s">
-        <v>990</v>
-      </c>
-      <c r="O113" t="s">
-        <v>1079</v>
-      </c>
-      <c r="P113" t="s">
-        <v>991</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" ht="42.75">
-      <c r="A114" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B114" t="s">
-        <v>995</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K114" t="s">
-        <v>1004</v>
-      </c>
-      <c r="L114" t="s">
-        <v>1071</v>
-      </c>
-      <c r="M114" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N114" t="s">
+      <c r="D116" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E116" t="s">
         <v>1006</v>
       </c>
-      <c r="O114" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="P114" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" ht="42.75">
-      <c r="A115" t="s">
-        <v>994</v>
-      </c>
-      <c r="B115" t="s">
-        <v>995</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="K115" t="s">
-        <v>997</v>
-      </c>
-      <c r="L115" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M115" t="s">
-        <v>998</v>
-      </c>
-      <c r="N115" t="s">
-        <v>999</v>
-      </c>
-      <c r="O115" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="P115" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" ht="85.5">
-      <c r="A116" t="s">
-        <v>939</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C116" s="2" t="s">
+      <c r="I116" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J116" t="s">
+        <v>929</v>
+      </c>
+      <c r="K116" t="s">
+        <v>930</v>
+      </c>
+      <c r="L116" t="s">
         <v>1024</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="J116" t="s">
-        <v>940</v>
-      </c>
-      <c r="K116" t="s">
-        <v>941</v>
-      </c>
-      <c r="L116" t="s">
-        <v>1035</v>
-      </c>
       <c r="M116" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="N116" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="O116" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="P116" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="Q116" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" ht="57">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>357</v>
       </c>
       <c r="B117" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="E117" t="s">
         <v>358</v>
       </c>
       <c r="I117" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="J117" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="K117" t="s">
         <v>359</v>
       </c>
       <c r="L117" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="M117" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="N117" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="O117" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="P117" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="Q117" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="42.75">
+    <row r="118" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>29</v>
       </c>
       <c r="B118" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>30</v>
@@ -9341,157 +9341,157 @@
         <v>31</v>
       </c>
       <c r="L118" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="M118" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="N118" t="s">
         <v>32</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="P118" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="Q118" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="71.25">
+    <row r="119" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>327</v>
       </c>
       <c r="B119" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="E119" t="s">
         <v>328</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="J119" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="K119" t="s">
         <v>329</v>
       </c>
       <c r="L119" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="M119" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="N119" t="s">
         <v>330</v>
       </c>
       <c r="O119" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="P119" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="Q119" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="57">
+    <row r="120" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>66</v>
       </c>
       <c r="B120" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="E120" t="s">
         <v>67</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="J120" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="K120" t="s">
         <v>68</v>
       </c>
       <c r="L120" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="M120" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="N120" t="s">
         <v>69</v>
       </c>
       <c r="O120" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="P120" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="Q120" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="71.25">
+    <row r="121" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="B121" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="E121" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="J121" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K121" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L121" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="K121" t="s">
-        <v>1021</v>
-      </c>
-      <c r="L121" s="2" t="s">
-        <v>1031</v>
-      </c>
       <c r="M121" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N121" t="s">
+        <v>1010</v>
+      </c>
+      <c r="O121" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="N121" t="s">
-        <v>1021</v>
-      </c>
-      <c r="O121" s="2" t="s">
-        <v>1031</v>
-      </c>
       <c r="P121" s="2" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="Q121" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" ht="71.25">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>149</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>392</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>502</v>
@@ -9508,7 +9508,7 @@
         <v>412</v>
       </c>
       <c r="F122" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G122" t="s">
         <v>150</v>
@@ -9517,7 +9517,7 @@
         <v>150</v>
       </c>
       <c r="I122" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J122" t="s">
         <v>150</v>
@@ -9526,7 +9526,7 @@
         <v>150</v>
       </c>
       <c r="L122" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M122" t="s">
         <v>150</v>
@@ -9535,7 +9535,7 @@
         <v>150</v>
       </c>
       <c r="O122" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="P122" t="s">
         <v>150</v>
@@ -9544,7 +9544,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="57">
+    <row r="123" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>198</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>395</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>531</v>
@@ -9561,7 +9561,7 @@
         <v>199</v>
       </c>
       <c r="I123" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J123" t="s">
         <v>200</v>
@@ -9570,7 +9570,7 @@
         <v>200</v>
       </c>
       <c r="L123" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M123" t="s">
         <v>200</v>
@@ -9579,7 +9579,7 @@
         <v>200</v>
       </c>
       <c r="O123" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="P123" t="s">
         <v>200</v>
@@ -9588,7 +9588,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="85.5">
+    <row r="124" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>205</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>395</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>534</v>
@@ -9605,7 +9605,7 @@
         <v>206</v>
       </c>
       <c r="I124" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J124" t="s">
         <v>200</v>
@@ -9614,7 +9614,7 @@
         <v>200</v>
       </c>
       <c r="L124" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M124" t="s">
         <v>200</v>
@@ -9623,7 +9623,7 @@
         <v>200</v>
       </c>
       <c r="O124" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="P124" t="s">
         <v>200</v>
@@ -9632,7 +9632,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="114">
+    <row r="125" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>203</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>395</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>533</v>
@@ -9649,7 +9649,7 @@
         <v>204</v>
       </c>
       <c r="I125" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J125" t="s">
         <v>200</v>
@@ -9658,7 +9658,7 @@
         <v>200</v>
       </c>
       <c r="L125" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M125" t="s">
         <v>200</v>
@@ -9667,7 +9667,7 @@
         <v>200</v>
       </c>
       <c r="O125" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="P125" t="s">
         <v>200</v>
@@ -9676,7 +9676,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="42.75">
+    <row r="126" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>120</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>390</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>483</v>
@@ -9693,7 +9693,7 @@
         <v>121</v>
       </c>
       <c r="I126" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J126" t="s">
         <v>484</v>
@@ -9702,7 +9702,7 @@
         <v>122</v>
       </c>
       <c r="L126" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M126" t="s">
         <v>485</v>
@@ -9711,7 +9711,7 @@
         <v>123</v>
       </c>
       <c r="O126" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="P126" t="s">
         <v>486</v>
@@ -9720,7 +9720,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="57">
+    <row r="127" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>201</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>396</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>532</v>
@@ -9737,7 +9737,7 @@
         <v>202</v>
       </c>
       <c r="I127" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J127" t="s">
         <v>200</v>
@@ -9746,7 +9746,7 @@
         <v>200</v>
       </c>
       <c r="L127" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M127" t="s">
         <v>200</v>
@@ -9755,7 +9755,7 @@
         <v>200</v>
       </c>
       <c r="O127" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="P127" t="s">
         <v>200</v>
@@ -9764,7 +9764,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="185.25">
+    <row r="128" spans="1:17" ht="195" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>377</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>396</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>619</v>
@@ -9781,7 +9781,7 @@
         <v>378</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>620</v>
@@ -9790,7 +9790,7 @@
         <v>379</v>
       </c>
       <c r="L128" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="M128" t="s">
         <v>621</v>
@@ -9799,7 +9799,7 @@
         <v>380</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="P128" s="2" t="s">
         <v>622</v>
@@ -9808,7 +9808,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="99.75">
+    <row r="129" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>370</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>405</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>611</v>
@@ -9825,7 +9825,7 @@
         <v>427</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>612</v>
@@ -9834,7 +9834,7 @@
         <v>428</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="M129" s="2" t="s">
         <v>613</v>
@@ -9843,7 +9843,7 @@
         <v>371</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="P129" s="2" t="s">
         <v>614</v>
@@ -9852,7 +9852,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>316</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>401</v>
       </c>
       <c r="I130" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="J130" t="s">
         <v>592</v>
@@ -9869,7 +9869,7 @@
         <v>317</v>
       </c>
       <c r="L130" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="M130" t="s">
         <v>593</v>
@@ -9878,7 +9878,7 @@
         <v>318</v>
       </c>
       <c r="O130" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="P130" t="s">
         <v>594</v>
@@ -9887,168 +9887,168 @@
         <v>319</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="42.75">
+    <row r="131" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>29</v>
       </c>
       <c r="B131" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="D131" t="s">
         <v>30</v>
       </c>
       <c r="E131" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="L131" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="M131" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="N131" t="s">
         <v>32</v>
       </c>
       <c r="O131" t="s">
-        <v>1087</v>
+        <v>1076</v>
       </c>
       <c r="P131" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="Q131" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="57">
+    <row r="132" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>66</v>
       </c>
       <c r="B132" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="D132" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="E132" t="s">
-        <v>1089</v>
+        <v>1078</v>
       </c>
       <c r="I132" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="J132" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="K132" t="s">
         <v>68</v>
       </c>
       <c r="L132" t="s">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="M132" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="N132" t="s">
         <v>69</v>
       </c>
       <c r="O132" t="s">
-        <v>1092</v>
+        <v>1081</v>
       </c>
       <c r="P132" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="Q132" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="71.25">
+    <row r="133" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>327</v>
       </c>
       <c r="B133" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D133" t="s">
-        <v>1093</v>
+        <v>1092</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>1105</v>
       </c>
       <c r="E133" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="I133" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="J133" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="K133" t="s">
         <v>329</v>
       </c>
       <c r="L133" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="M133" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="N133" t="s">
         <v>330</v>
       </c>
       <c r="O133" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="P133" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="Q133" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="57">
+    <row r="134" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>357</v>
       </c>
       <c r="B134" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="D134" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="E134" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="I134" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="J134" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="K134" t="s">
         <v>359</v>
       </c>
       <c r="L134" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="M134" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="N134" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="O134" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
       <c r="P134" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="Q134" t="s">
         <v>360</v>
